--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -59885,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -60221,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60275,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60329,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60383,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60437,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1071"/>
+  <dimension ref="A1:R1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60449,6 +60449,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>176.8500061035156</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>163.5700073242188</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>163.5700073242188</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>337176</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1072"/>
+  <dimension ref="A1:R1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59989,7 +59989,7 @@
         <v>23</v>
       </c>
       <c r="O1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1063" t="n">
         <v>0</v>
@@ -60501,7 +60501,63 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>50645</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60557,7 +60557,387 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>155.0500030517578</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>160.1300048828125</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>160.1300048828125</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>45918</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>164.4499969482422</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>164.4499969482422</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>156.3999938964844</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>32760</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>156.9700012207031</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>156.9700012207031</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>37753</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>160.1199951171875</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>160.1199951171875</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>53149</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>163.6000061035156</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>162.4100036621094</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>162.4100036621094</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>42338</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>163</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>158</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>24929</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>155.1499938964844</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>159.6600036621094</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>159.6600036621094</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>31140</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -60613,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60667,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60721,7 +60725,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60775,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60829,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60883,7 +60893,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60937,7 +60949,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1080"/>
+  <dimension ref="A1:R1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60437,7 +60437,7 @@
         <v>24</v>
       </c>
       <c r="O1071" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1071" t="n">
         <v>0</v>
@@ -60952,6 +60952,276 @@
       <c r="R1080" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>161.9900054931641</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>166.3999938964844</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>157.1600036621094</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>165.8099975585938</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>165.8099975585938</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>62320</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>166.4900054931641</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>169</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>164</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>165.7100067138672</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>165.7100067138672</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>52850</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>167.9499969482422</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>168</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>164.9799957275391</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>164.9799957275391</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>31069</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>165</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>167.8000030517578</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>158</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>162.4700012207031</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>162.4700012207031</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>54445</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>161.9400024414062</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>161.9799957275391</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>159.8200073242188</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>159.8200073242188</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>29944</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1085"/>
+  <dimension ref="A1:R1095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57147,25 +57147,25 @@
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B1013" t="n">
+        <v>117</v>
+      </c>
+      <c r="C1013" t="n">
         <v>120</v>
       </c>
-      <c r="C1013" t="n">
-        <v>124</v>
-      </c>
       <c r="D1013" t="n">
-        <v>118.8499984741211</v>
+        <v>116</v>
       </c>
       <c r="E1013" t="n">
-        <v>123.1999969482422</v>
+        <v>118.1999969482422</v>
       </c>
       <c r="F1013" t="n">
-        <v>123.1999969482422</v>
+        <v>118.1999969482422</v>
       </c>
       <c r="G1013" t="n">
-        <v>44391</v>
+        <v>40221</v>
       </c>
       <c r="H1013" t="n">
         <v>2024</v>
@@ -57174,7 +57174,7 @@
         <v>3</v>
       </c>
       <c r="J1013" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1013" t="n">
         <v>0</v>
@@ -57186,7 +57186,7 @@
         <v>0</v>
       </c>
       <c r="N1013" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1013" t="n">
         <v>0</v>
@@ -57197,31 +57197,29 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1013" t="inlineStr"/>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B1014" t="n">
-        <v>123.3499984741211</v>
+        <v>120</v>
       </c>
       <c r="C1014" t="n">
-        <v>123.3499984741211</v>
+        <v>124</v>
       </c>
       <c r="D1014" t="n">
-        <v>117.1500015258789</v>
+        <v>118.8499984741211</v>
       </c>
       <c r="E1014" t="n">
-        <v>118.1999969482422</v>
+        <v>123.1999969482422</v>
       </c>
       <c r="F1014" t="n">
-        <v>118.1999969482422</v>
+        <v>123.1999969482422</v>
       </c>
       <c r="G1014" t="n">
-        <v>45798</v>
+        <v>44391</v>
       </c>
       <c r="H1014" t="n">
         <v>2024</v>
@@ -57230,7 +57228,7 @@
         <v>3</v>
       </c>
       <c r="J1014" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1014" t="n">
         <v>0</v>
@@ -57259,25 +57257,25 @@
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B1015" t="n">
-        <v>119</v>
+        <v>123.3499984741211</v>
       </c>
       <c r="C1015" t="n">
-        <v>120.4499969482422</v>
+        <v>123.3499984741211</v>
       </c>
       <c r="D1015" t="n">
-        <v>117</v>
+        <v>117.1500015258789</v>
       </c>
       <c r="E1015" t="n">
-        <v>118.5999984741211</v>
+        <v>118.1999969482422</v>
       </c>
       <c r="F1015" t="n">
-        <v>118.5999984741211</v>
+        <v>118.1999969482422</v>
       </c>
       <c r="G1015" t="n">
-        <v>26482</v>
+        <v>45798</v>
       </c>
       <c r="H1015" t="n">
         <v>2024</v>
@@ -57286,7 +57284,7 @@
         <v>3</v>
       </c>
       <c r="J1015" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1015" t="n">
         <v>0</v>
@@ -57315,25 +57313,25 @@
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B1016" t="n">
+        <v>119</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>120.4499969482422</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>117</v>
+      </c>
+      <c r="E1016" t="n">
         <v>118.5999984741211</v>
       </c>
-      <c r="C1016" t="n">
-        <v>123.9000015258789</v>
-      </c>
-      <c r="D1016" t="n">
+      <c r="F1016" t="n">
         <v>118.5999984741211</v>
       </c>
-      <c r="E1016" t="n">
-        <v>122.3000030517578</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>122.3000030517578</v>
-      </c>
       <c r="G1016" t="n">
-        <v>81769</v>
+        <v>26482</v>
       </c>
       <c r="H1016" t="n">
         <v>2024</v>
@@ -57342,7 +57340,7 @@
         <v>3</v>
       </c>
       <c r="J1016" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1016" t="n">
         <v>0</v>
@@ -57371,25 +57369,25 @@
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B1017" t="n">
-        <v>122.9499969482422</v>
+        <v>118.5999984741211</v>
       </c>
       <c r="C1017" t="n">
-        <v>124.6999969482422</v>
+        <v>123.9000015258789</v>
       </c>
       <c r="D1017" t="n">
-        <v>121</v>
+        <v>118.5999984741211</v>
       </c>
       <c r="E1017" t="n">
-        <v>121.8499984741211</v>
+        <v>122.3000030517578</v>
       </c>
       <c r="F1017" t="n">
-        <v>121.8499984741211</v>
+        <v>122.3000030517578</v>
       </c>
       <c r="G1017" t="n">
-        <v>41906</v>
+        <v>81769</v>
       </c>
       <c r="H1017" t="n">
         <v>2024</v>
@@ -57398,7 +57396,7 @@
         <v>3</v>
       </c>
       <c r="J1017" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1017" t="n">
         <v>0</v>
@@ -57427,25 +57425,25 @@
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B1018" t="n">
-        <v>124</v>
+        <v>122.9499969482422</v>
       </c>
       <c r="C1018" t="n">
-        <v>124</v>
+        <v>124.6999969482422</v>
       </c>
       <c r="D1018" t="n">
-        <v>118.5</v>
+        <v>121</v>
       </c>
       <c r="E1018" t="n">
-        <v>119</v>
+        <v>121.8499984741211</v>
       </c>
       <c r="F1018" t="n">
-        <v>119</v>
+        <v>121.8499984741211</v>
       </c>
       <c r="G1018" t="n">
-        <v>66745</v>
+        <v>41906</v>
       </c>
       <c r="H1018" t="n">
         <v>2024</v>
@@ -57454,7 +57452,7 @@
         <v>3</v>
       </c>
       <c r="J1018" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1018" t="n">
         <v>0</v>
@@ -57466,7 +57464,7 @@
         <v>0</v>
       </c>
       <c r="N1018" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1018" t="n">
         <v>0</v>
@@ -57483,25 +57481,25 @@
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B1019" t="n">
-        <v>118.4000015258789</v>
+        <v>124</v>
       </c>
       <c r="C1019" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1019" t="n">
-        <v>116.1999969482422</v>
+        <v>118.5</v>
       </c>
       <c r="E1019" t="n">
-        <v>117.6500015258789</v>
+        <v>119</v>
       </c>
       <c r="F1019" t="n">
-        <v>117.6500015258789</v>
+        <v>119</v>
       </c>
       <c r="G1019" t="n">
-        <v>123645</v>
+        <v>66745</v>
       </c>
       <c r="H1019" t="n">
         <v>2024</v>
@@ -57510,7 +57508,7 @@
         <v>3</v>
       </c>
       <c r="J1019" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1019" t="n">
         <v>0</v>
@@ -57539,25 +57537,25 @@
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B1020" t="n">
-        <v>118.25</v>
+        <v>118.4000015258789</v>
       </c>
       <c r="C1020" t="n">
         <v>122</v>
       </c>
       <c r="D1020" t="n">
-        <v>117</v>
+        <v>116.1999969482422</v>
       </c>
       <c r="E1020" t="n">
-        <v>119.4000015258789</v>
+        <v>117.6500015258789</v>
       </c>
       <c r="F1020" t="n">
-        <v>119.4000015258789</v>
+        <v>117.6500015258789</v>
       </c>
       <c r="G1020" t="n">
-        <v>78027</v>
+        <v>123645</v>
       </c>
       <c r="H1020" t="n">
         <v>2024</v>
@@ -57566,7 +57564,7 @@
         <v>3</v>
       </c>
       <c r="J1020" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1020" t="n">
         <v>0</v>
@@ -57595,34 +57593,34 @@
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>45383</v>
+        <v>45379</v>
       </c>
       <c r="B1021" t="n">
-        <v>124</v>
+        <v>118.25</v>
       </c>
       <c r="C1021" t="n">
-        <v>126.5</v>
+        <v>122</v>
       </c>
       <c r="D1021" t="n">
-        <v>120.0500030517578</v>
+        <v>117</v>
       </c>
       <c r="E1021" t="n">
-        <v>124.75</v>
+        <v>119.4000015258789</v>
       </c>
       <c r="F1021" t="n">
-        <v>124.75</v>
+        <v>119.4000015258789</v>
       </c>
       <c r="G1021" t="n">
-        <v>46647</v>
+        <v>78027</v>
       </c>
       <c r="H1021" t="n">
         <v>2024</v>
       </c>
       <c r="I1021" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1021" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1021" t="n">
         <v>0</v>
@@ -57634,7 +57632,7 @@
         <v>0</v>
       </c>
       <c r="N1021" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1021" t="n">
         <v>0</v>
@@ -57651,25 +57649,25 @@
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B1022" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1022" t="n">
         <v>126.5</v>
       </c>
-      <c r="C1022" t="n">
-        <v>129.5</v>
-      </c>
       <c r="D1022" t="n">
-        <v>125</v>
+        <v>120.0500030517578</v>
       </c>
       <c r="E1022" t="n">
-        <v>127.1500015258789</v>
+        <v>124.75</v>
       </c>
       <c r="F1022" t="n">
-        <v>127.1500015258789</v>
+        <v>124.75</v>
       </c>
       <c r="G1022" t="n">
-        <v>50366</v>
+        <v>46647</v>
       </c>
       <c r="H1022" t="n">
         <v>2024</v>
@@ -57678,7 +57676,7 @@
         <v>4</v>
       </c>
       <c r="J1022" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1022" t="n">
         <v>0</v>
@@ -57707,25 +57705,25 @@
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B1023" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>125</v>
+      </c>
+      <c r="E1023" t="n">
         <v>127.1500015258789</v>
       </c>
-      <c r="C1023" t="n">
-        <v>131.6999969482422</v>
-      </c>
-      <c r="D1023" t="n">
+      <c r="F1023" t="n">
         <v>127.1500015258789</v>
       </c>
-      <c r="E1023" t="n">
-        <v>129</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>129</v>
-      </c>
       <c r="G1023" t="n">
-        <v>104591</v>
+        <v>50366</v>
       </c>
       <c r="H1023" t="n">
         <v>2024</v>
@@ -57734,7 +57732,7 @@
         <v>4</v>
       </c>
       <c r="J1023" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1023" t="n">
         <v>0</v>
@@ -57758,30 +57756,30 @@
         <v>1</v>
       </c>
       <c r="R1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B1024" t="n">
-        <v>130.8000030517578</v>
+        <v>127.1500015258789</v>
       </c>
       <c r="C1024" t="n">
-        <v>131.8999938964844</v>
+        <v>131.6999969482422</v>
       </c>
       <c r="D1024" t="n">
-        <v>128</v>
+        <v>127.1500015258789</v>
       </c>
       <c r="E1024" t="n">
-        <v>129.6000061035156</v>
+        <v>129</v>
       </c>
       <c r="F1024" t="n">
-        <v>129.6000061035156</v>
+        <v>129</v>
       </c>
       <c r="G1024" t="n">
-        <v>44852</v>
+        <v>104591</v>
       </c>
       <c r="H1024" t="n">
         <v>2024</v>
@@ -57790,7 +57788,7 @@
         <v>4</v>
       </c>
       <c r="J1024" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1024" t="n">
         <v>0</v>
@@ -57814,30 +57812,30 @@
         <v>0</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B1025" t="n">
-        <v>128.6000061035156</v>
+        <v>130.8000030517578</v>
       </c>
       <c r="C1025" t="n">
-        <v>131.6499938964844</v>
+        <v>131.8999938964844</v>
       </c>
       <c r="D1025" t="n">
-        <v>127.5500030517578</v>
+        <v>128</v>
       </c>
       <c r="E1025" t="n">
-        <v>130.6499938964844</v>
+        <v>129.6000061035156</v>
       </c>
       <c r="F1025" t="n">
-        <v>130.6499938964844</v>
+        <v>129.6000061035156</v>
       </c>
       <c r="G1025" t="n">
-        <v>45356</v>
+        <v>44852</v>
       </c>
       <c r="H1025" t="n">
         <v>2024</v>
@@ -57846,7 +57844,7 @@
         <v>4</v>
       </c>
       <c r="J1025" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1025" t="n">
         <v>0</v>
@@ -57875,25 +57873,25 @@
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B1026" t="n">
-        <v>134.6999969482422</v>
+        <v>128.6000061035156</v>
       </c>
       <c r="C1026" t="n">
-        <v>136</v>
+        <v>131.6499938964844</v>
       </c>
       <c r="D1026" t="n">
-        <v>130.6000061035156</v>
+        <v>127.5500030517578</v>
       </c>
       <c r="E1026" t="n">
-        <v>132.3000030517578</v>
+        <v>130.6499938964844</v>
       </c>
       <c r="F1026" t="n">
-        <v>132.3000030517578</v>
+        <v>130.6499938964844</v>
       </c>
       <c r="G1026" t="n">
-        <v>57773</v>
+        <v>45356</v>
       </c>
       <c r="H1026" t="n">
         <v>2024</v>
@@ -57902,7 +57900,7 @@
         <v>4</v>
       </c>
       <c r="J1026" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K1026" t="n">
         <v>0</v>
@@ -57914,7 +57912,7 @@
         <v>0</v>
       </c>
       <c r="N1026" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1026" t="n">
         <v>0</v>
@@ -57931,25 +57929,25 @@
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B1027" t="n">
-        <v>134.8999938964844</v>
+        <v>134.6999969482422</v>
       </c>
       <c r="C1027" t="n">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D1027" t="n">
-        <v>131.6000061035156</v>
+        <v>130.6000061035156</v>
       </c>
       <c r="E1027" t="n">
-        <v>147.3500061035156</v>
+        <v>132.3000030517578</v>
       </c>
       <c r="F1027" t="n">
-        <v>147.3500061035156</v>
+        <v>132.3000030517578</v>
       </c>
       <c r="G1027" t="n">
-        <v>1347319</v>
+        <v>57773</v>
       </c>
       <c r="H1027" t="n">
         <v>2024</v>
@@ -57958,7 +57956,7 @@
         <v>4</v>
       </c>
       <c r="J1027" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1027" t="n">
         <v>0</v>
@@ -57973,7 +57971,7 @@
         <v>15</v>
       </c>
       <c r="O1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1027" t="n">
         <v>0</v>
@@ -57987,25 +57985,25 @@
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B1028" t="n">
-        <v>147.5</v>
+        <v>134.8999938964844</v>
       </c>
       <c r="C1028" t="n">
-        <v>148.8999938964844</v>
+        <v>154</v>
       </c>
       <c r="D1028" t="n">
-        <v>138.6999969482422</v>
+        <v>131.6000061035156</v>
       </c>
       <c r="E1028" t="n">
-        <v>141.1499938964844</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="F1028" t="n">
-        <v>141.1499938964844</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="G1028" t="n">
-        <v>260009</v>
+        <v>1347319</v>
       </c>
       <c r="H1028" t="n">
         <v>2024</v>
@@ -58014,7 +58012,7 @@
         <v>4</v>
       </c>
       <c r="J1028" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1028" t="n">
         <v>0</v>
@@ -58029,7 +58027,7 @@
         <v>15</v>
       </c>
       <c r="O1028" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1028" t="n">
         <v>0</v>
@@ -58043,25 +58041,25 @@
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B1029" t="n">
-        <v>143</v>
+        <v>147.5</v>
       </c>
       <c r="C1029" t="n">
-        <v>144.25</v>
+        <v>148.8999938964844</v>
       </c>
       <c r="D1029" t="n">
-        <v>136.6999969482422</v>
+        <v>138.6999969482422</v>
       </c>
       <c r="E1029" t="n">
-        <v>137.6499938964844</v>
+        <v>141.1499938964844</v>
       </c>
       <c r="F1029" t="n">
-        <v>137.6499938964844</v>
+        <v>141.1499938964844</v>
       </c>
       <c r="G1029" t="n">
-        <v>94574</v>
+        <v>260009</v>
       </c>
       <c r="H1029" t="n">
         <v>2024</v>
@@ -58070,7 +58068,7 @@
         <v>4</v>
       </c>
       <c r="J1029" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1029" t="n">
         <v>0</v>
@@ -58099,25 +58097,25 @@
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B1030" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C1030" t="n">
-        <v>142.5500030517578</v>
+        <v>144.25</v>
       </c>
       <c r="D1030" t="n">
-        <v>132.5</v>
+        <v>136.6999969482422</v>
       </c>
       <c r="E1030" t="n">
-        <v>137.3000030517578</v>
+        <v>137.6499938964844</v>
       </c>
       <c r="F1030" t="n">
-        <v>137.3000030517578</v>
+        <v>137.6499938964844</v>
       </c>
       <c r="G1030" t="n">
-        <v>102845</v>
+        <v>94574</v>
       </c>
       <c r="H1030" t="n">
         <v>2024</v>
@@ -58126,19 +58124,19 @@
         <v>4</v>
       </c>
       <c r="J1030" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
         <v>15</v>
-      </c>
-      <c r="K1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1030" t="n">
-        <v>16</v>
       </c>
       <c r="O1030" t="n">
         <v>0</v>
@@ -58155,25 +58153,25 @@
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B1031" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>142.5500030517578</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="E1031" t="n">
         <v>137.3000030517578</v>
       </c>
-      <c r="C1031" t="n">
-        <v>140.9499969482422</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>135.1499938964844</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>139.3999938964844</v>
-      </c>
       <c r="F1031" t="n">
-        <v>139.3999938964844</v>
+        <v>137.3000030517578</v>
       </c>
       <c r="G1031" t="n">
-        <v>82779</v>
+        <v>102845</v>
       </c>
       <c r="H1031" t="n">
         <v>2024</v>
@@ -58182,7 +58180,7 @@
         <v>4</v>
       </c>
       <c r="J1031" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1031" t="n">
         <v>0</v>
@@ -58211,25 +58209,25 @@
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B1032" t="n">
-        <v>141.5</v>
+        <v>137.3000030517578</v>
       </c>
       <c r="C1032" t="n">
-        <v>143.8999938964844</v>
+        <v>140.9499969482422</v>
       </c>
       <c r="D1032" t="n">
-        <v>137.3999938964844</v>
+        <v>135.1499938964844</v>
       </c>
       <c r="E1032" t="n">
-        <v>138.8500061035156</v>
+        <v>139.3999938964844</v>
       </c>
       <c r="F1032" t="n">
-        <v>138.8500061035156</v>
+        <v>139.3999938964844</v>
       </c>
       <c r="G1032" t="n">
-        <v>94839</v>
+        <v>82779</v>
       </c>
       <c r="H1032" t="n">
         <v>2024</v>
@@ -58238,7 +58236,7 @@
         <v>4</v>
       </c>
       <c r="J1032" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1032" t="n">
         <v>0</v>
@@ -58267,25 +58265,25 @@
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B1033" t="n">
-        <v>140.8999938964844</v>
+        <v>141.5</v>
       </c>
       <c r="C1033" t="n">
-        <v>142</v>
+        <v>143.8999938964844</v>
       </c>
       <c r="D1033" t="n">
-        <v>135.9499969482422</v>
+        <v>137.3999938964844</v>
       </c>
       <c r="E1033" t="n">
-        <v>140.8999938964844</v>
+        <v>138.8500061035156</v>
       </c>
       <c r="F1033" t="n">
-        <v>140.8999938964844</v>
+        <v>138.8500061035156</v>
       </c>
       <c r="G1033" t="n">
-        <v>81640</v>
+        <v>94839</v>
       </c>
       <c r="H1033" t="n">
         <v>2024</v>
@@ -58294,7 +58292,7 @@
         <v>4</v>
       </c>
       <c r="J1033" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1033" t="n">
         <v>0</v>
@@ -58323,25 +58321,25 @@
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B1034" t="n">
+        <v>140.8999938964844</v>
+      </c>
+      <c r="C1034" t="n">
         <v>142</v>
       </c>
-      <c r="C1034" t="n">
-        <v>145</v>
-      </c>
       <c r="D1034" t="n">
-        <v>141.1000061035156</v>
+        <v>135.9499969482422</v>
       </c>
       <c r="E1034" t="n">
-        <v>143.5</v>
+        <v>140.8999938964844</v>
       </c>
       <c r="F1034" t="n">
-        <v>143.5</v>
+        <v>140.8999938964844</v>
       </c>
       <c r="G1034" t="n">
-        <v>77984</v>
+        <v>81640</v>
       </c>
       <c r="H1034" t="n">
         <v>2024</v>
@@ -58350,7 +58348,7 @@
         <v>4</v>
       </c>
       <c r="J1034" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1034" t="n">
         <v>0</v>
@@ -58362,7 +58360,7 @@
         <v>0</v>
       </c>
       <c r="N1034" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1034" t="n">
         <v>0</v>
@@ -58379,25 +58377,25 @@
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B1035" t="n">
-        <v>144.8999938964844</v>
+        <v>142</v>
       </c>
       <c r="C1035" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1035" t="n">
-        <v>138</v>
+        <v>141.1000061035156</v>
       </c>
       <c r="E1035" t="n">
-        <v>140.8000030517578</v>
+        <v>143.5</v>
       </c>
       <c r="F1035" t="n">
-        <v>140.8000030517578</v>
+        <v>143.5</v>
       </c>
       <c r="G1035" t="n">
-        <v>612112</v>
+        <v>77984</v>
       </c>
       <c r="H1035" t="n">
         <v>2024</v>
@@ -58406,7 +58404,7 @@
         <v>4</v>
       </c>
       <c r="J1035" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1035" t="n">
         <v>0</v>
@@ -58435,25 +58433,25 @@
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B1036" t="n">
-        <v>139.5</v>
+        <v>144.8999938964844</v>
       </c>
       <c r="C1036" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D1036" t="n">
-        <v>135.6999969482422</v>
+        <v>138</v>
       </c>
       <c r="E1036" t="n">
-        <v>136.4499969482422</v>
+        <v>140.8000030517578</v>
       </c>
       <c r="F1036" t="n">
-        <v>136.4499969482422</v>
+        <v>140.8000030517578</v>
       </c>
       <c r="G1036" t="n">
-        <v>117104</v>
+        <v>612112</v>
       </c>
       <c r="H1036" t="n">
         <v>2024</v>
@@ -58462,7 +58460,7 @@
         <v>4</v>
       </c>
       <c r="J1036" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1036" t="n">
         <v>0</v>
@@ -58491,25 +58489,25 @@
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B1037" t="n">
-        <v>137</v>
+        <v>139.5</v>
       </c>
       <c r="C1037" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1037" t="n">
-        <v>133.25</v>
+        <v>135.6999969482422</v>
       </c>
       <c r="E1037" t="n">
-        <v>133.9499969482422</v>
+        <v>136.4499969482422</v>
       </c>
       <c r="F1037" t="n">
-        <v>133.9499969482422</v>
+        <v>136.4499969482422</v>
       </c>
       <c r="G1037" t="n">
-        <v>85793</v>
+        <v>117104</v>
       </c>
       <c r="H1037" t="n">
         <v>2024</v>
@@ -58518,7 +58516,7 @@
         <v>4</v>
       </c>
       <c r="J1037" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1037" t="n">
         <v>0</v>
@@ -58547,25 +58545,25 @@
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B1038" t="n">
-        <v>135.25</v>
+        <v>137</v>
       </c>
       <c r="C1038" t="n">
         <v>137</v>
       </c>
       <c r="D1038" t="n">
-        <v>133.6000061035156</v>
+        <v>133.25</v>
       </c>
       <c r="E1038" t="n">
-        <v>134.1000061035156</v>
+        <v>133.9499969482422</v>
       </c>
       <c r="F1038" t="n">
-        <v>134.1000061035156</v>
+        <v>133.9499969482422</v>
       </c>
       <c r="G1038" t="n">
-        <v>71034</v>
+        <v>85793</v>
       </c>
       <c r="H1038" t="n">
         <v>2024</v>
@@ -58574,7 +58572,7 @@
         <v>4</v>
       </c>
       <c r="J1038" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1038" t="n">
         <v>0</v>
@@ -58603,25 +58601,25 @@
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B1039" t="n">
-        <v>134</v>
+        <v>135.25</v>
       </c>
       <c r="C1039" t="n">
-        <v>136.5</v>
+        <v>137</v>
       </c>
       <c r="D1039" t="n">
-        <v>131.8500061035156</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="E1039" t="n">
-        <v>133.0500030517578</v>
+        <v>134.1000061035156</v>
       </c>
       <c r="F1039" t="n">
-        <v>133.0500030517578</v>
+        <v>134.1000061035156</v>
       </c>
       <c r="G1039" t="n">
-        <v>105256</v>
+        <v>71034</v>
       </c>
       <c r="H1039" t="n">
         <v>2024</v>
@@ -58630,7 +58628,7 @@
         <v>4</v>
       </c>
       <c r="J1039" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1039" t="n">
         <v>0</v>
@@ -58642,7 +58640,7 @@
         <v>0</v>
       </c>
       <c r="N1039" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1039" t="n">
         <v>0</v>
@@ -58659,25 +58657,25 @@
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B1040" t="n">
-        <v>133.1000061035156</v>
+        <v>134</v>
       </c>
       <c r="C1040" t="n">
-        <v>145.4499969482422</v>
+        <v>136.5</v>
       </c>
       <c r="D1040" t="n">
-        <v>133.1000061035156</v>
+        <v>131.8500061035156</v>
       </c>
       <c r="E1040" t="n">
-        <v>138.25</v>
+        <v>133.0500030517578</v>
       </c>
       <c r="F1040" t="n">
-        <v>138.25</v>
+        <v>133.0500030517578</v>
       </c>
       <c r="G1040" t="n">
-        <v>648008</v>
+        <v>105256</v>
       </c>
       <c r="H1040" t="n">
         <v>2024</v>
@@ -58686,7 +58684,7 @@
         <v>4</v>
       </c>
       <c r="J1040" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1040" t="n">
         <v>0</v>
@@ -58715,34 +58713,34 @@
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="B1041" t="n">
-        <v>138.5</v>
+        <v>133.1000061035156</v>
       </c>
       <c r="C1041" t="n">
-        <v>139.1499938964844</v>
+        <v>145.4499969482422</v>
       </c>
       <c r="D1041" t="n">
-        <v>136.1499938964844</v>
+        <v>133.1000061035156</v>
       </c>
       <c r="E1041" t="n">
-        <v>137.0500030517578</v>
+        <v>138.25</v>
       </c>
       <c r="F1041" t="n">
-        <v>137.0500030517578</v>
+        <v>138.25</v>
       </c>
       <c r="G1041" t="n">
-        <v>51718</v>
+        <v>648008</v>
       </c>
       <c r="H1041" t="n">
         <v>2024</v>
       </c>
       <c r="I1041" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1041" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K1041" t="n">
         <v>0</v>
@@ -58771,25 +58769,25 @@
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B1042" t="n">
-        <v>136.5500030517578</v>
+        <v>138.5</v>
       </c>
       <c r="C1042" t="n">
-        <v>140</v>
+        <v>139.1499938964844</v>
       </c>
       <c r="D1042" t="n">
-        <v>136.5500030517578</v>
+        <v>136.1499938964844</v>
       </c>
       <c r="E1042" t="n">
-        <v>139.1000061035156</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="F1042" t="n">
-        <v>139.1000061035156</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="G1042" t="n">
-        <v>68919</v>
+        <v>51718</v>
       </c>
       <c r="H1042" t="n">
         <v>2024</v>
@@ -58798,7 +58796,7 @@
         <v>5</v>
       </c>
       <c r="J1042" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1042" t="n">
         <v>0</v>
@@ -58827,25 +58825,25 @@
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B1043" t="n">
-        <v>139.4499969482422</v>
+        <v>136.5500030517578</v>
       </c>
       <c r="C1043" t="n">
-        <v>141.8000030517578</v>
+        <v>140</v>
       </c>
       <c r="D1043" t="n">
-        <v>136.4499969482422</v>
+        <v>136.5500030517578</v>
       </c>
       <c r="E1043" t="n">
-        <v>140.0500030517578</v>
+        <v>139.1000061035156</v>
       </c>
       <c r="F1043" t="n">
-        <v>140.0500030517578</v>
+        <v>139.1000061035156</v>
       </c>
       <c r="G1043" t="n">
-        <v>98234</v>
+        <v>68919</v>
       </c>
       <c r="H1043" t="n">
         <v>2024</v>
@@ -58854,7 +58852,7 @@
         <v>5</v>
       </c>
       <c r="J1043" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1043" t="n">
         <v>0</v>
@@ -58866,7 +58864,7 @@
         <v>0</v>
       </c>
       <c r="N1043" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1043" t="n">
         <v>0</v>
@@ -58883,25 +58881,25 @@
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B1044" t="n">
+        <v>139.4499969482422</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>141.8000030517578</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>136.4499969482422</v>
+      </c>
+      <c r="E1044" t="n">
         <v>140.0500030517578</v>
       </c>
-      <c r="C1044" t="n">
-        <v>140.1000061035156</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>136</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>137.3999938964844</v>
-      </c>
       <c r="F1044" t="n">
-        <v>137.3999938964844</v>
+        <v>140.0500030517578</v>
       </c>
       <c r="G1044" t="n">
-        <v>30069</v>
+        <v>98234</v>
       </c>
       <c r="H1044" t="n">
         <v>2024</v>
@@ -58910,7 +58908,7 @@
         <v>5</v>
       </c>
       <c r="J1044" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1044" t="n">
         <v>0</v>
@@ -58939,25 +58937,25 @@
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B1045" t="n">
-        <v>137.8999938964844</v>
+        <v>140.0500030517578</v>
       </c>
       <c r="C1045" t="n">
-        <v>138.8999938964844</v>
+        <v>140.1000061035156</v>
       </c>
       <c r="D1045" t="n">
-        <v>135.3500061035156</v>
+        <v>136</v>
       </c>
       <c r="E1045" t="n">
-        <v>136.8000030517578</v>
+        <v>137.3999938964844</v>
       </c>
       <c r="F1045" t="n">
-        <v>136.8000030517578</v>
+        <v>137.3999938964844</v>
       </c>
       <c r="G1045" t="n">
-        <v>42260</v>
+        <v>30069</v>
       </c>
       <c r="H1045" t="n">
         <v>2024</v>
@@ -58966,7 +58964,7 @@
         <v>5</v>
       </c>
       <c r="J1045" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1045" t="n">
         <v>0</v>
@@ -58995,25 +58993,25 @@
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B1046" t="n">
-        <v>138.8000030517578</v>
+        <v>137.8999938964844</v>
       </c>
       <c r="C1046" t="n">
-        <v>138.8000030517578</v>
+        <v>138.8999938964844</v>
       </c>
       <c r="D1046" t="n">
-        <v>131.5500030517578</v>
+        <v>135.3500061035156</v>
       </c>
       <c r="E1046" t="n">
-        <v>132.3500061035156</v>
+        <v>136.8000030517578</v>
       </c>
       <c r="F1046" t="n">
-        <v>132.3500061035156</v>
+        <v>136.8000030517578</v>
       </c>
       <c r="G1046" t="n">
-        <v>36783</v>
+        <v>42260</v>
       </c>
       <c r="H1046" t="n">
         <v>2024</v>
@@ -59022,7 +59020,7 @@
         <v>5</v>
       </c>
       <c r="J1046" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1046" t="n">
         <v>0</v>
@@ -59037,7 +59035,7 @@
         <v>19</v>
       </c>
       <c r="O1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1046" t="n">
         <v>0</v>
@@ -59051,25 +59049,25 @@
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B1047" t="n">
-        <v>133.75</v>
+        <v>138.8000030517578</v>
       </c>
       <c r="C1047" t="n">
-        <v>138.5</v>
+        <v>138.8000030517578</v>
       </c>
       <c r="D1047" t="n">
-        <v>133.75</v>
+        <v>131.5500030517578</v>
       </c>
       <c r="E1047" t="n">
-        <v>137.0500030517578</v>
+        <v>132.3500061035156</v>
       </c>
       <c r="F1047" t="n">
-        <v>137.0500030517578</v>
+        <v>132.3500061035156</v>
       </c>
       <c r="G1047" t="n">
-        <v>40936</v>
+        <v>36783</v>
       </c>
       <c r="H1047" t="n">
         <v>2024</v>
@@ -59078,7 +59076,7 @@
         <v>5</v>
       </c>
       <c r="J1047" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1047" t="n">
         <v>0</v>
@@ -59093,7 +59091,7 @@
         <v>19</v>
       </c>
       <c r="O1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1047" t="n">
         <v>0</v>
@@ -59107,25 +59105,25 @@
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B1048" t="n">
-        <v>137.5500030517578</v>
+        <v>133.75</v>
       </c>
       <c r="C1048" t="n">
-        <v>144</v>
+        <v>138.5</v>
       </c>
       <c r="D1048" t="n">
-        <v>134.8000030517578</v>
+        <v>133.75</v>
       </c>
       <c r="E1048" t="n">
-        <v>137.6999969482422</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="F1048" t="n">
-        <v>137.6999969482422</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="G1048" t="n">
-        <v>116404</v>
+        <v>40936</v>
       </c>
       <c r="H1048" t="n">
         <v>2024</v>
@@ -59134,7 +59132,7 @@
         <v>5</v>
       </c>
       <c r="J1048" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1048" t="n">
         <v>0</v>
@@ -59146,7 +59144,7 @@
         <v>0</v>
       </c>
       <c r="N1048" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1048" t="n">
         <v>0</v>
@@ -59163,25 +59161,25 @@
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B1049" t="n">
-        <v>139.8500061035156</v>
+        <v>137.5500030517578</v>
       </c>
       <c r="C1049" t="n">
-        <v>141.0500030517578</v>
+        <v>144</v>
       </c>
       <c r="D1049" t="n">
-        <v>136</v>
+        <v>134.8000030517578</v>
       </c>
       <c r="E1049" t="n">
-        <v>137.6499938964844</v>
+        <v>137.6999969482422</v>
       </c>
       <c r="F1049" t="n">
-        <v>137.6499938964844</v>
+        <v>137.6999969482422</v>
       </c>
       <c r="G1049" t="n">
-        <v>49705</v>
+        <v>116404</v>
       </c>
       <c r="H1049" t="n">
         <v>2024</v>
@@ -59190,7 +59188,7 @@
         <v>5</v>
       </c>
       <c r="J1049" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1049" t="n">
         <v>0</v>
@@ -59219,25 +59217,25 @@
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B1050" t="n">
-        <v>137.3000030517578</v>
+        <v>139.8500061035156</v>
       </c>
       <c r="C1050" t="n">
-        <v>141.5500030517578</v>
+        <v>141.0500030517578</v>
       </c>
       <c r="D1050" t="n">
-        <v>137.3000030517578</v>
+        <v>136</v>
       </c>
       <c r="E1050" t="n">
-        <v>139.25</v>
+        <v>137.6499938964844</v>
       </c>
       <c r="F1050" t="n">
-        <v>139.25</v>
+        <v>137.6499938964844</v>
       </c>
       <c r="G1050" t="n">
-        <v>80895</v>
+        <v>49705</v>
       </c>
       <c r="H1050" t="n">
         <v>2024</v>
@@ -59246,7 +59244,7 @@
         <v>5</v>
       </c>
       <c r="J1050" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1050" t="n">
         <v>0</v>
@@ -59275,25 +59273,25 @@
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B1051" t="n">
-        <v>141</v>
+        <v>137.3000030517578</v>
       </c>
       <c r="C1051" t="n">
-        <v>143.8500061035156</v>
+        <v>141.5500030517578</v>
       </c>
       <c r="D1051" t="n">
-        <v>139.3000030517578</v>
+        <v>137.3000030517578</v>
       </c>
       <c r="E1051" t="n">
-        <v>140.0500030517578</v>
+        <v>139.25</v>
       </c>
       <c r="F1051" t="n">
-        <v>140.0500030517578</v>
+        <v>139.25</v>
       </c>
       <c r="G1051" t="n">
-        <v>83401</v>
+        <v>80895</v>
       </c>
       <c r="H1051" t="n">
         <v>2024</v>
@@ -59302,7 +59300,7 @@
         <v>5</v>
       </c>
       <c r="J1051" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1051" t="n">
         <v>0</v>
@@ -59331,25 +59329,25 @@
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B1052" t="n">
+        <v>141</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>143.8500061035156</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>139.3000030517578</v>
+      </c>
+      <c r="E1052" t="n">
         <v>140.0500030517578</v>
       </c>
-      <c r="C1052" t="n">
-        <v>141.5500030517578</v>
-      </c>
-      <c r="D1052" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="E1052" t="n">
-        <v>137.0500030517578</v>
-      </c>
       <c r="F1052" t="n">
-        <v>137.0500030517578</v>
+        <v>140.0500030517578</v>
       </c>
       <c r="G1052" t="n">
-        <v>32295</v>
+        <v>83401</v>
       </c>
       <c r="H1052" t="n">
         <v>2024</v>
@@ -59358,7 +59356,7 @@
         <v>5</v>
       </c>
       <c r="J1052" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1052" t="n">
         <v>0</v>
@@ -59387,25 +59385,25 @@
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
-        <v>45433</v>
+        <v>45429</v>
       </c>
       <c r="B1053" t="n">
-        <v>137.6999969482422</v>
+        <v>140.0500030517578</v>
       </c>
       <c r="C1053" t="n">
-        <v>138.4499969482422</v>
+        <v>141.5500030517578</v>
       </c>
       <c r="D1053" t="n">
-        <v>135.75</v>
+        <v>136.5</v>
       </c>
       <c r="E1053" t="n">
-        <v>136.1000061035156</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="F1053" t="n">
-        <v>136.1000061035156</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="G1053" t="n">
-        <v>40978</v>
+        <v>32295</v>
       </c>
       <c r="H1053" t="n">
         <v>2024</v>
@@ -59414,7 +59412,7 @@
         <v>5</v>
       </c>
       <c r="J1053" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1053" t="n">
         <v>0</v>
@@ -59426,7 +59424,7 @@
         <v>0</v>
       </c>
       <c r="N1053" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1053" t="n">
         <v>0</v>
@@ -59443,25 +59441,25 @@
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B1054" t="n">
-        <v>137</v>
+        <v>137.6999969482422</v>
       </c>
       <c r="C1054" t="n">
-        <v>137.25</v>
+        <v>138.4499969482422</v>
       </c>
       <c r="D1054" t="n">
-        <v>134.3000030517578</v>
+        <v>135.75</v>
       </c>
       <c r="E1054" t="n">
-        <v>134.9499969482422</v>
+        <v>136.1000061035156</v>
       </c>
       <c r="F1054" t="n">
-        <v>134.9499969482422</v>
+        <v>136.1000061035156</v>
       </c>
       <c r="G1054" t="n">
-        <v>37356</v>
+        <v>40978</v>
       </c>
       <c r="H1054" t="n">
         <v>2024</v>
@@ -59470,7 +59468,7 @@
         <v>5</v>
       </c>
       <c r="J1054" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1054" t="n">
         <v>0</v>
@@ -59499,25 +59497,25 @@
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B1055" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1055" t="n">
-        <v>137.5</v>
+        <v>137.25</v>
       </c>
       <c r="D1055" t="n">
-        <v>135</v>
+        <v>134.3000030517578</v>
       </c>
       <c r="E1055" t="n">
-        <v>135.5</v>
+        <v>134.9499969482422</v>
       </c>
       <c r="F1055" t="n">
-        <v>135.5</v>
+        <v>134.9499969482422</v>
       </c>
       <c r="G1055" t="n">
-        <v>34302</v>
+        <v>37356</v>
       </c>
       <c r="H1055" t="n">
         <v>2024</v>
@@ -59526,7 +59524,7 @@
         <v>5</v>
       </c>
       <c r="J1055" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1055" t="n">
         <v>0</v>
@@ -59555,25 +59553,25 @@
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B1056" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1056" t="n">
         <v>135.5</v>
       </c>
-      <c r="C1056" t="n">
-        <v>136.6000061035156</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>133.0500030517578</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>134</v>
-      </c>
       <c r="F1056" t="n">
-        <v>134</v>
+        <v>135.5</v>
       </c>
       <c r="G1056" t="n">
-        <v>41042</v>
+        <v>34302</v>
       </c>
       <c r="H1056" t="n">
         <v>2024</v>
@@ -59582,7 +59580,7 @@
         <v>5</v>
       </c>
       <c r="J1056" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1056" t="n">
         <v>0</v>
@@ -59611,25 +59609,25 @@
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B1057" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>136.6000061035156</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>133.0500030517578</v>
+      </c>
+      <c r="E1057" t="n">
         <v>134</v>
       </c>
-      <c r="C1057" t="n">
-        <v>135.1999969482422</v>
-      </c>
-      <c r="D1057" t="n">
-        <v>132.1499938964844</v>
-      </c>
-      <c r="E1057" t="n">
-        <v>132.3999938964844</v>
-      </c>
       <c r="F1057" t="n">
-        <v>132.3999938964844</v>
+        <v>134</v>
       </c>
       <c r="G1057" t="n">
-        <v>32941</v>
+        <v>41042</v>
       </c>
       <c r="H1057" t="n">
         <v>2024</v>
@@ -59638,7 +59636,7 @@
         <v>5</v>
       </c>
       <c r="J1057" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K1057" t="n">
         <v>0</v>
@@ -59650,7 +59648,7 @@
         <v>0</v>
       </c>
       <c r="N1057" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1057" t="n">
         <v>0</v>
@@ -59667,25 +59665,25 @@
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B1058" t="n">
+        <v>134</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>135.1999969482422</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>132.1499938964844</v>
+      </c>
+      <c r="E1058" t="n">
         <v>132.3999938964844</v>
       </c>
-      <c r="C1058" t="n">
-        <v>134.1999969482422</v>
-      </c>
-      <c r="D1058" t="n">
-        <v>131</v>
-      </c>
-      <c r="E1058" t="n">
-        <v>132</v>
-      </c>
       <c r="F1058" t="n">
-        <v>132</v>
+        <v>132.3999938964844</v>
       </c>
       <c r="G1058" t="n">
-        <v>31678</v>
+        <v>32941</v>
       </c>
       <c r="H1058" t="n">
         <v>2024</v>
@@ -59694,7 +59692,7 @@
         <v>5</v>
       </c>
       <c r="J1058" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1058" t="n">
         <v>0</v>
@@ -59723,25 +59721,25 @@
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B1059" t="n">
-        <v>132.5500030517578</v>
+        <v>132.3999938964844</v>
       </c>
       <c r="C1059" t="n">
-        <v>133.1999969482422</v>
+        <v>134.1999969482422</v>
       </c>
       <c r="D1059" t="n">
-        <v>129.8000030517578</v>
+        <v>131</v>
       </c>
       <c r="E1059" t="n">
-        <v>130.3500061035156</v>
+        <v>132</v>
       </c>
       <c r="F1059" t="n">
-        <v>130.3500061035156</v>
+        <v>132</v>
       </c>
       <c r="G1059" t="n">
-        <v>29339</v>
+        <v>31678</v>
       </c>
       <c r="H1059" t="n">
         <v>2024</v>
@@ -59750,7 +59748,7 @@
         <v>5</v>
       </c>
       <c r="J1059" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1059" t="n">
         <v>0</v>
@@ -59779,25 +59777,25 @@
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B1060" t="n">
-        <v>131.3999938964844</v>
+        <v>132.5500030517578</v>
       </c>
       <c r="C1060" t="n">
-        <v>133.1000061035156</v>
+        <v>133.1999969482422</v>
       </c>
       <c r="D1060" t="n">
-        <v>129.1999969482422</v>
+        <v>129.8000030517578</v>
       </c>
       <c r="E1060" t="n">
-        <v>129.8999938964844</v>
+        <v>130.3500061035156</v>
       </c>
       <c r="F1060" t="n">
-        <v>129.8999938964844</v>
+        <v>130.3500061035156</v>
       </c>
       <c r="G1060" t="n">
-        <v>27753</v>
+        <v>29339</v>
       </c>
       <c r="H1060" t="n">
         <v>2024</v>
@@ -59806,7 +59804,7 @@
         <v>5</v>
       </c>
       <c r="J1060" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1060" t="n">
         <v>0</v>
@@ -59835,25 +59833,25 @@
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B1061" t="n">
-        <v>129.1499938964844</v>
+        <v>131.3999938964844</v>
       </c>
       <c r="C1061" t="n">
-        <v>139.3999938964844</v>
+        <v>133.1000061035156</v>
       </c>
       <c r="D1061" t="n">
-        <v>128.8000030517578</v>
+        <v>129.1999969482422</v>
       </c>
       <c r="E1061" t="n">
-        <v>135.25</v>
+        <v>129.8999938964844</v>
       </c>
       <c r="F1061" t="n">
-        <v>135.25</v>
+        <v>129.8999938964844</v>
       </c>
       <c r="G1061" t="n">
-        <v>76524</v>
+        <v>27753</v>
       </c>
       <c r="H1061" t="n">
         <v>2024</v>
@@ -59862,7 +59860,7 @@
         <v>5</v>
       </c>
       <c r="J1061" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1061" t="n">
         <v>0</v>
@@ -59891,34 +59889,34 @@
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B1062" t="n">
-        <v>138</v>
+        <v>129.1499938964844</v>
       </c>
       <c r="C1062" t="n">
-        <v>138.9499969482422</v>
+        <v>139.3999938964844</v>
       </c>
       <c r="D1062" t="n">
-        <v>132.3999938964844</v>
+        <v>128.8000030517578</v>
       </c>
       <c r="E1062" t="n">
-        <v>133.0500030517578</v>
+        <v>135.25</v>
       </c>
       <c r="F1062" t="n">
-        <v>133.0500030517578</v>
+        <v>135.25</v>
       </c>
       <c r="G1062" t="n">
-        <v>58985</v>
+        <v>76524</v>
       </c>
       <c r="H1062" t="n">
         <v>2024</v>
       </c>
       <c r="I1062" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1062" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K1062" t="n">
         <v>0</v>
@@ -59930,7 +59928,7 @@
         <v>0</v>
       </c>
       <c r="N1062" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1062" t="n">
         <v>0</v>
@@ -59947,25 +59945,25 @@
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B1063" t="n">
-        <v>135.75</v>
+        <v>138</v>
       </c>
       <c r="C1063" t="n">
-        <v>135.75</v>
+        <v>138.9499969482422</v>
       </c>
       <c r="D1063" t="n">
-        <v>116</v>
+        <v>132.3999938964844</v>
       </c>
       <c r="E1063" t="n">
-        <v>125.8000030517578</v>
+        <v>133.0500030517578</v>
       </c>
       <c r="F1063" t="n">
-        <v>125.8000030517578</v>
+        <v>133.0500030517578</v>
       </c>
       <c r="G1063" t="n">
-        <v>59500</v>
+        <v>58985</v>
       </c>
       <c r="H1063" t="n">
         <v>2024</v>
@@ -59974,7 +59972,7 @@
         <v>6</v>
       </c>
       <c r="J1063" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1063" t="n">
         <v>0</v>
@@ -59989,7 +59987,7 @@
         <v>23</v>
       </c>
       <c r="O1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1063" t="n">
         <v>0</v>
@@ -60003,25 +60001,25 @@
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B1064" t="n">
-        <v>126.1999969482422</v>
+        <v>135.75</v>
       </c>
       <c r="C1064" t="n">
-        <v>134</v>
+        <v>135.75</v>
       </c>
       <c r="D1064" t="n">
-        <v>123.5</v>
+        <v>116</v>
       </c>
       <c r="E1064" t="n">
-        <v>131.9499969482422</v>
+        <v>125.8000030517578</v>
       </c>
       <c r="F1064" t="n">
-        <v>131.9499969482422</v>
+        <v>125.8000030517578</v>
       </c>
       <c r="G1064" t="n">
-        <v>40065</v>
+        <v>59500</v>
       </c>
       <c r="H1064" t="n">
         <v>2024</v>
@@ -60030,7 +60028,7 @@
         <v>6</v>
       </c>
       <c r="J1064" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1064" t="n">
         <v>0</v>
@@ -60045,7 +60043,7 @@
         <v>23</v>
       </c>
       <c r="O1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1064" t="n">
         <v>0</v>
@@ -60059,25 +60057,25 @@
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B1065" t="n">
-        <v>134.5500030517578</v>
+        <v>126.1999969482422</v>
       </c>
       <c r="C1065" t="n">
-        <v>134.5500030517578</v>
+        <v>134</v>
       </c>
       <c r="D1065" t="n">
-        <v>131.5</v>
+        <v>123.5</v>
       </c>
       <c r="E1065" t="n">
-        <v>132.5500030517578</v>
+        <v>131.9499969482422</v>
       </c>
       <c r="F1065" t="n">
-        <v>132.5500030517578</v>
+        <v>131.9499969482422</v>
       </c>
       <c r="G1065" t="n">
-        <v>33638</v>
+        <v>40065</v>
       </c>
       <c r="H1065" t="n">
         <v>2024</v>
@@ -60086,7 +60084,7 @@
         <v>6</v>
       </c>
       <c r="J1065" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1065" t="n">
         <v>0</v>
@@ -60115,25 +60113,25 @@
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B1066" t="n">
-        <v>132.75</v>
+        <v>134.5500030517578</v>
       </c>
       <c r="C1066" t="n">
-        <v>136.1499938964844</v>
+        <v>134.5500030517578</v>
       </c>
       <c r="D1066" t="n">
-        <v>132.6999969482422</v>
+        <v>131.5</v>
       </c>
       <c r="E1066" t="n">
-        <v>134.8500061035156</v>
+        <v>132.5500030517578</v>
       </c>
       <c r="F1066" t="n">
-        <v>134.8500061035156</v>
+        <v>132.5500030517578</v>
       </c>
       <c r="G1066" t="n">
-        <v>35389</v>
+        <v>33638</v>
       </c>
       <c r="H1066" t="n">
         <v>2024</v>
@@ -60142,7 +60140,7 @@
         <v>6</v>
       </c>
       <c r="J1066" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1066" t="n">
         <v>0</v>
@@ -60171,25 +60169,25 @@
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B1067" t="n">
-        <v>136</v>
+        <v>132.75</v>
       </c>
       <c r="C1067" t="n">
-        <v>146.9499969482422</v>
+        <v>136.1499938964844</v>
       </c>
       <c r="D1067" t="n">
-        <v>134.8000030517578</v>
+        <v>132.6999969482422</v>
       </c>
       <c r="E1067" t="n">
-        <v>143.1699981689453</v>
+        <v>134.8500061035156</v>
       </c>
       <c r="F1067" t="n">
-        <v>143.1699981689453</v>
+        <v>134.8500061035156</v>
       </c>
       <c r="G1067" t="n">
-        <v>378790</v>
+        <v>35389</v>
       </c>
       <c r="H1067" t="n">
         <v>2024</v>
@@ -60198,7 +60196,7 @@
         <v>6</v>
       </c>
       <c r="J1067" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1067" t="n">
         <v>0</v>
@@ -60210,7 +60208,7 @@
         <v>0</v>
       </c>
       <c r="N1067" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1067" t="n">
         <v>0</v>
@@ -60227,25 +60225,25 @@
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B1068" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C1068" t="n">
-        <v>160</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="D1068" t="n">
-        <v>143.3300018310547</v>
+        <v>134.8000030517578</v>
       </c>
       <c r="E1068" t="n">
-        <v>158.5099945068359</v>
+        <v>143.1699981689453</v>
       </c>
       <c r="F1068" t="n">
-        <v>158.5099945068359</v>
+        <v>143.1699981689453</v>
       </c>
       <c r="G1068" t="n">
-        <v>1105087</v>
+        <v>378790</v>
       </c>
       <c r="H1068" t="n">
         <v>2024</v>
@@ -60254,7 +60252,7 @@
         <v>6</v>
       </c>
       <c r="J1068" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1068" t="n">
         <v>0</v>
@@ -60283,25 +60281,25 @@
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1069" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C1069" t="n">
-        <v>167.6499938964844</v>
+        <v>160</v>
       </c>
       <c r="D1069" t="n">
-        <v>156.0500030517578</v>
+        <v>143.3300018310547</v>
       </c>
       <c r="E1069" t="n">
-        <v>166.4799957275391</v>
+        <v>158.5099945068359</v>
       </c>
       <c r="F1069" t="n">
-        <v>166.4799957275391</v>
+        <v>158.5099945068359</v>
       </c>
       <c r="G1069" t="n">
-        <v>805334</v>
+        <v>1105087</v>
       </c>
       <c r="H1069" t="n">
         <v>2024</v>
@@ -60310,7 +60308,7 @@
         <v>6</v>
       </c>
       <c r="J1069" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1069" t="n">
         <v>0</v>
@@ -60339,25 +60337,25 @@
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B1070" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C1070" t="n">
-        <v>177.5</v>
+        <v>167.6499938964844</v>
       </c>
       <c r="D1070" t="n">
-        <v>164</v>
+        <v>156.0500030517578</v>
       </c>
       <c r="E1070" t="n">
-        <v>174.8000030517578</v>
+        <v>166.4799957275391</v>
       </c>
       <c r="F1070" t="n">
-        <v>174.8000030517578</v>
+        <v>166.4799957275391</v>
       </c>
       <c r="G1070" t="n">
-        <v>983631</v>
+        <v>805334</v>
       </c>
       <c r="H1070" t="n">
         <v>2024</v>
@@ -60366,7 +60364,7 @@
         <v>6</v>
       </c>
       <c r="J1070" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1070" t="n">
         <v>0</v>
@@ -60395,25 +60393,25 @@
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1071" t="n">
-        <v>174.6999969482422</v>
+        <v>167</v>
       </c>
       <c r="C1071" t="n">
-        <v>179.6499938964844</v>
+        <v>177.5</v>
       </c>
       <c r="D1071" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E1071" t="n">
-        <v>171.7899932861328</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="F1071" t="n">
-        <v>171.7899932861328</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="G1071" t="n">
-        <v>424428</v>
+        <v>983631</v>
       </c>
       <c r="H1071" t="n">
         <v>2024</v>
@@ -60422,7 +60420,7 @@
         <v>6</v>
       </c>
       <c r="J1071" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1071" t="n">
         <v>0</v>
@@ -60437,7 +60435,7 @@
         <v>24</v>
       </c>
       <c r="O1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1071" t="n">
         <v>0</v>
@@ -60451,25 +60449,25 @@
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B1072" t="n">
-        <v>174.8999938964844</v>
+        <v>174.6999969482422</v>
       </c>
       <c r="C1072" t="n">
-        <v>176.8500061035156</v>
+        <v>179.6499938964844</v>
       </c>
       <c r="D1072" t="n">
-        <v>159.1000061035156</v>
+        <v>169</v>
       </c>
       <c r="E1072" t="n">
-        <v>163.5700073242188</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="F1072" t="n">
-        <v>163.5700073242188</v>
+        <v>171.7899932861328</v>
       </c>
       <c r="G1072" t="n">
-        <v>337176</v>
+        <v>424428</v>
       </c>
       <c r="H1072" t="n">
         <v>2024</v>
@@ -60478,7 +60476,7 @@
         <v>6</v>
       </c>
       <c r="J1072" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1072" t="n">
         <v>0</v>
@@ -60490,10 +60488,10 @@
         <v>0</v>
       </c>
       <c r="N1072" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1072" t="n">
         <v>0</v>
@@ -60507,25 +60505,25 @@
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B1073" t="n">
-        <v>161.1000061035156</v>
+        <v>174.8999938964844</v>
       </c>
       <c r="C1073" t="n">
-        <v>169.5</v>
+        <v>176.8500061035156</v>
       </c>
       <c r="D1073" t="n">
-        <v>156.1000061035156</v>
+        <v>159.1000061035156</v>
       </c>
       <c r="E1073" t="n">
-        <v>161.1499938964844</v>
+        <v>163.5700073242188</v>
       </c>
       <c r="F1073" t="n">
-        <v>161.1499938964844</v>
+        <v>163.5700073242188</v>
       </c>
       <c r="G1073" t="n">
-        <v>50645</v>
+        <v>337176</v>
       </c>
       <c r="H1073" t="n">
         <v>2024</v>
@@ -60534,7 +60532,7 @@
         <v>6</v>
       </c>
       <c r="J1073" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1073" t="n">
         <v>0</v>
@@ -60563,25 +60561,25 @@
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B1074" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="E1074" t="n">
         <v>161.1499938964844</v>
       </c>
-      <c r="C1074" t="n">
-        <v>163.8000030517578</v>
-      </c>
-      <c r="D1074" t="n">
-        <v>155.0500030517578</v>
-      </c>
-      <c r="E1074" t="n">
-        <v>160.1300048828125</v>
-      </c>
       <c r="F1074" t="n">
-        <v>160.1300048828125</v>
+        <v>161.1499938964844</v>
       </c>
       <c r="G1074" t="n">
-        <v>45918</v>
+        <v>50645</v>
       </c>
       <c r="H1074" t="n">
         <v>2024</v>
@@ -60590,7 +60588,7 @@
         <v>6</v>
       </c>
       <c r="J1074" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1074" t="n">
         <v>0</v>
@@ -60619,25 +60617,25 @@
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1075" t="n">
-        <v>164.4499969482422</v>
+        <v>161.1499938964844</v>
       </c>
       <c r="C1075" t="n">
-        <v>164.4499969482422</v>
+        <v>163.8000030517578</v>
       </c>
       <c r="D1075" t="n">
-        <v>156.3999938964844</v>
+        <v>155.0500030517578</v>
       </c>
       <c r="E1075" t="n">
-        <v>160.0800018310547</v>
+        <v>160.1300048828125</v>
       </c>
       <c r="F1075" t="n">
-        <v>160.0800018310547</v>
+        <v>160.1300048828125</v>
       </c>
       <c r="G1075" t="n">
-        <v>32760</v>
+        <v>45918</v>
       </c>
       <c r="H1075" t="n">
         <v>2024</v>
@@ -60646,7 +60644,7 @@
         <v>6</v>
       </c>
       <c r="J1075" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1075" t="n">
         <v>0</v>
@@ -60675,25 +60673,25 @@
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B1076" t="n">
-        <v>160.5</v>
+        <v>164.4499969482422</v>
       </c>
       <c r="C1076" t="n">
-        <v>162</v>
+        <v>164.4499969482422</v>
       </c>
       <c r="D1076" t="n">
-        <v>156</v>
+        <v>156.3999938964844</v>
       </c>
       <c r="E1076" t="n">
-        <v>156.9700012207031</v>
+        <v>160.0800018310547</v>
       </c>
       <c r="F1076" t="n">
-        <v>156.9700012207031</v>
+        <v>160.0800018310547</v>
       </c>
       <c r="G1076" t="n">
-        <v>37753</v>
+        <v>32760</v>
       </c>
       <c r="H1076" t="n">
         <v>2024</v>
@@ -60702,7 +60700,7 @@
         <v>6</v>
       </c>
       <c r="J1076" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1076" t="n">
         <v>0</v>
@@ -60714,7 +60712,7 @@
         <v>0</v>
       </c>
       <c r="N1076" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1076" t="n">
         <v>0</v>
@@ -60731,25 +60729,25 @@
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B1077" t="n">
-        <v>157.5</v>
+        <v>160.5</v>
       </c>
       <c r="C1077" t="n">
-        <v>163.75</v>
+        <v>162</v>
       </c>
       <c r="D1077" t="n">
-        <v>157.5</v>
+        <v>156</v>
       </c>
       <c r="E1077" t="n">
-        <v>160.1199951171875</v>
+        <v>156.9700012207031</v>
       </c>
       <c r="F1077" t="n">
-        <v>160.1199951171875</v>
+        <v>156.9700012207031</v>
       </c>
       <c r="G1077" t="n">
-        <v>53149</v>
+        <v>37753</v>
       </c>
       <c r="H1077" t="n">
         <v>2024</v>
@@ -60758,7 +60756,7 @@
         <v>6</v>
       </c>
       <c r="J1077" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1077" t="n">
         <v>0</v>
@@ -60787,25 +60785,25 @@
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B1078" t="n">
-        <v>163.6000061035156</v>
+        <v>157.5</v>
       </c>
       <c r="C1078" t="n">
-        <v>163.6000061035156</v>
+        <v>163.75</v>
       </c>
       <c r="D1078" t="n">
-        <v>158.5</v>
+        <v>157.5</v>
       </c>
       <c r="E1078" t="n">
-        <v>162.4100036621094</v>
+        <v>160.1199951171875</v>
       </c>
       <c r="F1078" t="n">
-        <v>162.4100036621094</v>
+        <v>160.1199951171875</v>
       </c>
       <c r="G1078" t="n">
-        <v>42338</v>
+        <v>53149</v>
       </c>
       <c r="H1078" t="n">
         <v>2024</v>
@@ -60814,7 +60812,7 @@
         <v>6</v>
       </c>
       <c r="J1078" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1078" t="n">
         <v>0</v>
@@ -60843,25 +60841,25 @@
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B1079" t="n">
-        <v>163</v>
+        <v>163.6000061035156</v>
       </c>
       <c r="C1079" t="n">
-        <v>163</v>
+        <v>163.6000061035156</v>
       </c>
       <c r="D1079" t="n">
-        <v>158</v>
+        <v>158.5</v>
       </c>
       <c r="E1079" t="n">
-        <v>158.6000061035156</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="F1079" t="n">
-        <v>158.6000061035156</v>
+        <v>162.4100036621094</v>
       </c>
       <c r="G1079" t="n">
-        <v>24929</v>
+        <v>42338</v>
       </c>
       <c r="H1079" t="n">
         <v>2024</v>
@@ -60870,7 +60868,7 @@
         <v>6</v>
       </c>
       <c r="J1079" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1079" t="n">
         <v>0</v>
@@ -60899,25 +60897,25 @@
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B1080" t="n">
-        <v>158.0200042724609</v>
+        <v>163</v>
       </c>
       <c r="C1080" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1080" t="n">
-        <v>155.1499938964844</v>
+        <v>158</v>
       </c>
       <c r="E1080" t="n">
-        <v>159.6600036621094</v>
+        <v>158.6000061035156</v>
       </c>
       <c r="F1080" t="n">
-        <v>159.6600036621094</v>
+        <v>158.6000061035156</v>
       </c>
       <c r="G1080" t="n">
-        <v>31140</v>
+        <v>24929</v>
       </c>
       <c r="H1080" t="n">
         <v>2024</v>
@@ -60926,7 +60924,7 @@
         <v>6</v>
       </c>
       <c r="J1080" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1080" t="n">
         <v>0</v>
@@ -60955,34 +60953,34 @@
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B1081" t="n">
-        <v>161.9900054931641</v>
+        <v>158.0200042724609</v>
       </c>
       <c r="C1081" t="n">
-        <v>166.3999938964844</v>
+        <v>162</v>
       </c>
       <c r="D1081" t="n">
-        <v>157.1600036621094</v>
+        <v>155.1499938964844</v>
       </c>
       <c r="E1081" t="n">
-        <v>165.8099975585938</v>
+        <v>159.6600036621094</v>
       </c>
       <c r="F1081" t="n">
-        <v>165.8099975585938</v>
+        <v>159.6600036621094</v>
       </c>
       <c r="G1081" t="n">
-        <v>62320</v>
+        <v>31140</v>
       </c>
       <c r="H1081" t="n">
         <v>2024</v>
       </c>
       <c r="I1081" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1081" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1081" t="n">
         <v>0</v>
@@ -60994,7 +60992,7 @@
         <v>0</v>
       </c>
       <c r="N1081" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1081" t="n">
         <v>0</v>
@@ -61005,29 +61003,31 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B1082" t="n">
-        <v>166.4900054931641</v>
+        <v>161.9900054931641</v>
       </c>
       <c r="C1082" t="n">
-        <v>169</v>
+        <v>166.3999938964844</v>
       </c>
       <c r="D1082" t="n">
-        <v>164</v>
+        <v>157.1600036621094</v>
       </c>
       <c r="E1082" t="n">
-        <v>165.7100067138672</v>
+        <v>165.8099975585938</v>
       </c>
       <c r="F1082" t="n">
-        <v>165.7100067138672</v>
+        <v>165.8099975585938</v>
       </c>
       <c r="G1082" t="n">
-        <v>52850</v>
+        <v>62320</v>
       </c>
       <c r="H1082" t="n">
         <v>2024</v>
@@ -61036,7 +61036,7 @@
         <v>7</v>
       </c>
       <c r="J1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1082" t="n">
         <v>0</v>
@@ -61059,29 +61059,31 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B1083" t="n">
-        <v>167.9499969482422</v>
+        <v>166.4900054931641</v>
       </c>
       <c r="C1083" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1083" t="n">
-        <v>163.5</v>
+        <v>164</v>
       </c>
       <c r="E1083" t="n">
-        <v>164.9799957275391</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="F1083" t="n">
-        <v>164.9799957275391</v>
+        <v>165.7100067138672</v>
       </c>
       <c r="G1083" t="n">
-        <v>31069</v>
+        <v>52850</v>
       </c>
       <c r="H1083" t="n">
         <v>2024</v>
@@ -61090,7 +61092,7 @@
         <v>7</v>
       </c>
       <c r="J1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1083" t="n">
         <v>0</v>
@@ -61113,29 +61115,31 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B1084" t="n">
-        <v>165</v>
+        <v>167.9499969482422</v>
       </c>
       <c r="C1084" t="n">
-        <v>167.8000030517578</v>
+        <v>168</v>
       </c>
       <c r="D1084" t="n">
-        <v>158</v>
+        <v>163.5</v>
       </c>
       <c r="E1084" t="n">
-        <v>162.4700012207031</v>
+        <v>164.9799957275391</v>
       </c>
       <c r="F1084" t="n">
-        <v>162.4700012207031</v>
+        <v>164.9799957275391</v>
       </c>
       <c r="G1084" t="n">
-        <v>54445</v>
+        <v>31069</v>
       </c>
       <c r="H1084" t="n">
         <v>2024</v>
@@ -61144,7 +61148,7 @@
         <v>7</v>
       </c>
       <c r="J1084" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1084" t="n">
         <v>0</v>
@@ -61167,29 +61171,31 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="B1085" t="n">
-        <v>161.9400024414062</v>
+        <v>165</v>
       </c>
       <c r="C1085" t="n">
-        <v>161.9799957275391</v>
+        <v>167.8000030517578</v>
       </c>
       <c r="D1085" t="n">
-        <v>158.0099945068359</v>
+        <v>158</v>
       </c>
       <c r="E1085" t="n">
-        <v>159.8200073242188</v>
+        <v>162.4700012207031</v>
       </c>
       <c r="F1085" t="n">
-        <v>159.8200073242188</v>
+        <v>162.4700012207031</v>
       </c>
       <c r="G1085" t="n">
-        <v>29944</v>
+        <v>54445</v>
       </c>
       <c r="H1085" t="n">
         <v>2024</v>
@@ -61198,7 +61204,7 @@
         <v>7</v>
       </c>
       <c r="J1085" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1085" t="n">
         <v>0</v>
@@ -61221,7 +61227,551 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>161.9400024414062</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>161.9799957275391</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>159.8200073242188</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>159.8200073242188</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>29944</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>161.9499969482422</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>155.1999969482422</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>24969</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>155.6100006103516</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>23812</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>158.6499938964844</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>153</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>153.8999938964844</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>153.8999938964844</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>19171</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>159.8600006103516</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>159.8600006103516</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>152.1499938964844</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>156.3800048828125</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>156.3800048828125</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>26372</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>151.9499969482422</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>151.9499969482422</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>35618</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>154.8899993896484</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>152.7299957275391</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>152.7299957275391</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>24506</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>150.5500030517578</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>151.4799957275391</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>151.4799957275391</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>38849</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>151.4799957275391</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>153.8999938964844</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>145.5500030517578</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>152.3999938964844</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>152.3999938964844</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>28454</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>144.7799987792969</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>145.1999969482422</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>145.1999969482422</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>52749</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1095"/>
+  <dimension ref="A1:R1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57197,7 +57197,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57756,7 +57758,7 @@
         <v>1</v>
       </c>
       <c r="R1023" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
@@ -57812,7 +57814,7 @@
         <v>0</v>
       </c>
       <c r="R1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -61339,7 +61341,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61393,7 +61397,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61447,7 +61453,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61501,7 +61509,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61555,7 +61565,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61609,7 +61621,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61663,7 +61677,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61717,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61771,7 +61789,549 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>143</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>146</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>138.1000061035156</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>140.9299926757812</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>140.9299926757812</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>39366</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>135.6999969482422</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>139.0299987792969</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>139.0299987792969</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>37580</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>139.0299987792969</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>145.9799957275391</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>139.0299987792969</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>145.5700073242188</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>145.5700073242188</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>20749</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>145.5700073242188</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>152.8399963378906</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>143.0099945068359</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>152.8399963378906</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>152.8399963378906</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>39043</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>158.1999969482422</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>150.1000061035156</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>151.4299926757812</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>151.4299926757812</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>50510</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>145</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>146.5399932861328</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>146.5399932861328</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>41407</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>145</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>148.6999969482422</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>140.0099945068359</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>144.4199981689453</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>144.4199981689453</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>35313</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>144.1000061035156</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>145.9499969482422</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>140.8500061035156</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>143.4799957275391</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>143.4799957275391</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>21491</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>141.1199951171875</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>144.9299926757812</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>138</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>138.7400054931641</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>138.7400054931641</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>51139</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>137.0099945068359</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>139.2899932861328</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>135.0500030517578</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>136.6199951171875</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>136.6199951171875</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>25579</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1105"/>
+  <dimension ref="A1:R1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61845,7 +61845,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61899,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61953,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -62007,7 +62013,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62061,7 +62069,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62115,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62169,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62223,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62277,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62331,7 +62349,279 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>136.6199951171875</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>129.7799987792969</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>132</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>132</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>28157</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>134</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>134.9499969482422</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>126.4000015258789</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>127.5500030517578</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>127.5500030517578</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>55731</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>129.8999938964844</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>129.9799957275391</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>127</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>129.4400024414062</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>129.4400024414062</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>21205</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>129.8800048828125</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>133.9900054931641</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>128</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>133.2299957275391</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>133.2299957275391</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>24166</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>134.8500061035156</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>135.3000030517578</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>131.1999969482422</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>132.8500061035156</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>132.8500061035156</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>11899</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1110"/>
+  <dimension ref="A1:R1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62405,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62459,7 +62461,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62513,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62567,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62621,7 +62629,225 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>131.9900054931641</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>132.7400054931641</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>129.5099945068359</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>131.8899993896484</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>131.8899993896484</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>12202</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>133.9700012207031</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>130.4299926757812</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>130.4299926757812</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>19337</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>132</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>128</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>130.4199981689453</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>130.4199981689453</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>10102</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>134.4400024414062</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>134.4400024414062</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>132.5299987792969</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>132.5299987792969</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>8328</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1114"/>
+  <dimension ref="A1:R1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62453,7 +62453,7 @@
         <v>32</v>
       </c>
       <c r="O1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1107" t="n">
         <v>0</v>
@@ -62685,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62739,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62793,7 +62797,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62847,7 +62853,279 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>134.9799957275391</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>134.9799957275391</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>129</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>130.1399993896484</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>130.1399993896484</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>22729</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>132.8300018310547</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>134.3999938964844</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>131.5500030517578</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>132.9400024414062</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>132.9400024414062</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>10546</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>134.1499938964844</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>134.1499938964844</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>132.3000030517578</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>132.3000030517578</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>31300</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>133.5800018310547</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>133.5800018310547</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>131.4700012207031</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>131.4700012207031</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>19061</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>132</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>132</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>129.25</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>131.3200073242188</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>131.3200073242188</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>38696</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1119"/>
+  <dimension ref="A1:R1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62909,7 +62909,9 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62963,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63017,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63071,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63125,7 +63133,279 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>133.2799987792969</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>133.2799987792969</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>131.5500030517578</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>131.5500030517578</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>17847</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>132.8800048828125</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>138.1199951171875</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>131</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>138.1000061035156</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>138.1000061035156</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>52182</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>143</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>22391</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>140</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>143.1999969482422</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>132.0500030517578</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>139.5399932861328</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>139.5399932861328</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>43815</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>146.5099945068359</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>136.2299957275391</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>143.0800018310547</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>143.0800018310547</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>68293</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63189,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63243,7 +63245,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63297,7 +63301,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63351,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63405,7 +63413,279 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>145.3999938964844</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>147.6999969482422</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>142.3000030517578</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>143.3899993896484</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>143.3899993896484</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>33517</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>145</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>141.1000061035156</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>142.1300048828125</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>142.1300048828125</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>15337</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>142</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>136.2700042724609</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>6301</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>141.8800048828125</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>137.5200042724609</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>137.5200042724609</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>15895</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>138.9400024414062</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>138.9400024414062</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>134.3000030517578</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>135.1699981689453</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>135.1699981689453</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>12967</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1129"/>
+  <dimension ref="A1:R1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63469,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63523,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63577,7 +63581,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63631,7 +63637,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63685,7 +63693,279 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>134</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>135.3699951171875</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>130.8999938964844</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>133.3000030517578</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>133.3000030517578</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>19467</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>133.3000030517578</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>133.1999969482422</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>136.2400054931641</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>136.2400054931641</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>12743</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>138.6999969482422</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>138.6999969482422</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>134.5500030517578</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>135</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>135</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>10293</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>137.9700012207031</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>137.9700012207031</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>133</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>133.4400024414062</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>133.4400024414062</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>9585</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>137.2200012207031</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>134.3999938964844</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>134.7700042724609</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>134.7700042724609</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>14041</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1134"/>
+  <dimension ref="A1:R1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63461,7 +63461,7 @@
         <v>36</v>
       </c>
       <c r="O1125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1125" t="n">
         <v>0</v>
@@ -63749,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63803,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63857,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63911,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63965,7 +63973,279 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>137.4100036621094</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>137.4100036621094</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>8308</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>139</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>136.6900024414062</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>136.6900024414062</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>27719</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>130.6499938964844</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>131.3000030517578</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>131.3000030517578</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>81351</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>134.8999938964844</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>133.7400054931641</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>133.7400054931641</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>13676</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>133.8099975585938</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>138</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>131.0200042724609</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>134.8699951171875</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>134.8699951171875</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>43761</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1139"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64029,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64083,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64137,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64191,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64245,7 +64253,279 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>140.0099945068359</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>132.5500030517578</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>133.1199951171875</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>133.1199951171875</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>89710</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>133.1199951171875</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>134.3899993896484</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>130.0500030517578</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>131.4700012207031</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>131.4700012207031</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>61823</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>131.4700012207031</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>133.7899932861328</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>130.7599945068359</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>130.7599945068359</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>43780</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>132</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>133.4400024414062</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>128.2599945068359</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>129.3699951171875</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>129.3699951171875</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>44344</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>131</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>131</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>127.3099975585938</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>129.5399932861328</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>129.5399932861328</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>49113</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64309,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64363,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64417,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64471,7 +64477,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64525,7 +64533,225 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>130</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>130</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>127.5500030517578</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>128.6699981689453</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>128.6699981689453</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>36699</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>129.9900054931641</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>130</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>129.0700073242188</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>129.0700073242188</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>16551</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>129.9900054931641</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>129.9900054931641</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>126</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>126.9400024414062</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>126.9400024414062</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>41412</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>126.9499969482422</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>129.8999938964844</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>125.2900009155273</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>38685</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1148"/>
+  <dimension ref="A1:R1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64301,7 +64301,7 @@
         <v>39</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64643,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64697,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64751,7 +64757,279 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>129.6999969482422</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>129.6999969482422</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>122.8499984741211</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>126.5299987792969</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>126.5299987792969</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>76858</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>128.8899993896484</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>126.4300003051758</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>126.4300003051758</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>47509</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>126.0999984741211</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>129.8000030517578</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>126.0999984741211</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>128.5299987792969</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>128.5299987792969</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>28124</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>129.8500061035156</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>129.8999938964844</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>127.5500030517578</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>129.8099975585938</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>129.8099975585938</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>31567</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>129.8399963378906</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>130.5800018310547</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>129.0099945068359</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>43863</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1153"/>
+  <dimension ref="A1:R1158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64867,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64921,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>2</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64975,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65029,7 +65037,279 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>129.8899993896484</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>133.1499938964844</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>128.6600036621094</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>129.7799987792969</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>129.7799987792969</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>56526</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>131.8000030517578</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>131.8000030517578</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>127.0599975585938</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>127.4199981689453</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>127.4199981689453</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>26529</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>127.4199981689453</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>129.4299926757812</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>126.0299987792969</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>127.4199981689453</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>127.4199981689453</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>28434</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>130.3999938964844</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>130.3999938964844</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>122</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>122.7900009155273</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>122.7900009155273</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>65632</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>121.2399978637695</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>125.3000030517578</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>118.3600006103516</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>120.5299987792969</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>120.5299987792969</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>88496</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1158"/>
+  <dimension ref="A1:R1163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65093,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65147,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65201,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65255,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65309,7 +65317,279 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>120.4499969482422</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>122.6699981689453</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>117.0999984741211</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>119.5299987792969</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>119.5299987792969</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>29613</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>120.0400009155273</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>120.0400009155273</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>112.4000015258789</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>114.8000030517578</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>114.8000030517578</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>38376</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>117.0500030517578</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>117.0500030517578</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>112.5100021362305</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>114.7799987792969</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>114.7799987792969</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>15563</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>114.6900024414062</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>114.9499969482422</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>113.5999984741211</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>113.9899978637695</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>113.9899978637695</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>8345</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>110.2699966430664</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>113.8099975585938</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>113.8099975585938</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>24086</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1163"/>
+  <dimension ref="A1:R1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65085,7 +65085,7 @@
         <v>42</v>
       </c>
       <c r="O1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1154" t="n">
         <v>0</v>
@@ -65373,7 +65373,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65427,7 +65429,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65481,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65535,7 +65541,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65589,7 +65597,225 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>116</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>118.5599975585938</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>111.7600021362305</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>116.0100021362305</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>116.0100021362305</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>18235</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>120.0500030517578</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>120.0500030517578</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>114.9400024414062</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>117.0999984741211</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>117.0999984741211</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>10938</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>119</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>121.3899993896484</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>117.1999969482422</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>120.3099975585938</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>120.3099975585938</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>16748</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>121.9400024414062</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>123.8499984741211</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>119.3899993896484</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>14047</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1167"/>
+  <dimension ref="A1:R1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65589,7 +65589,7 @@
         <v>43</v>
       </c>
       <c r="O1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1163" t="n">
         <v>0</v>
@@ -65653,7 +65653,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65707,7 +65709,9 @@
       <c r="Q1165" t="n">
         <v>2</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65761,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65815,7 +65821,333 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>120.9899978637695</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>121.9899978637695</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>122.8899993896484</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>117.7799987792969</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>120.9400024414062</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>120.9400024414062</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>27534</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>121</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>122.3000030517578</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>118.8099975585938</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>119.3099975585938</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>119.3099975585938</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>13158</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>121.6399993896484</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>121.6399993896484</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>118.5699996948242</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>120.1600036621094</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>120.1600036621094</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>24384</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>121.9100036621094</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>123.4700012207031</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>121.4100036621094</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>121.4100036621094</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>16811</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>122.0400009155273</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>122.8899993896484</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>119.0199966430664</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>119.9300003051758</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>119.9300003051758</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>13437</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1173"/>
+  <dimension ref="A1:R1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65877,7 +65877,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65931,7 +65933,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65985,7 +65989,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66039,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66093,7 +66101,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66147,7 +66157,225 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>120</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>122</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>119.5599975585938</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>119.5599975585938</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>16495</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>123.9400024414062</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>115.0400009155273</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>116.0800018310547</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>116.0800018310547</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>31320</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>118.3499984741211</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>120.6999969482422</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>110.5500030517578</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>111.3899993896484</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>111.3899993896484</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>40320</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>113.4000015258789</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>114.3600006103516</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>107.5100021362305</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>108.3899993896484</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>108.3899993896484</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>49060</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1177"/>
+  <dimension ref="A1:R1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66213,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66267,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66321,7 +66325,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66375,7 +66381,225 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>109.8000030517578</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>112.7900009155273</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>107</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>109.4300003051758</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>109.4300003051758</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>20534</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>112</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>114.8199996948242</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>108.4100036621094</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>111.2099990844727</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>111.2099990844727</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>25429</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>111.2099990844727</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>113.9199981689453</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>109.0199966430664</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>111.1999969482422</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>111.1999969482422</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>15159</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>111.9000015258789</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>108</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>110.0699996948242</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>110.0699996948242</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>46672</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1181"/>
+  <dimension ref="A1:R1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66261,7 +66261,7 @@
         <v>46</v>
       </c>
       <c r="O1175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1175" t="n">
         <v>0</v>
@@ -66437,7 +66437,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66491,7 +66493,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66545,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66599,7 +66605,279 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>112.6999969482422</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>115.4499969482422</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>110.8099975585938</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>111.8399963378906</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>111.8399963378906</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>39905</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>113.0400009155273</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>114.9800033569336</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>111</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>113.120002746582</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>113.120002746582</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>22800</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>114.6500015258789</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>115.3499984741211</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>112.0100021362305</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>112.7799987792969</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>112.7799987792969</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>23508</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>119.2900009155273</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>112.0199966430664</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>118.8099975585938</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>118.8099975585938</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>62352</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>120.6999969482422</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>124.5899963378906</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>115.6500015258789</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>123.75</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>54115</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1186"/>
+  <dimension ref="A1:R1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66429,7 +66429,7 @@
         <v>47</v>
       </c>
       <c r="O1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1178" t="n">
         <v>0</v>
@@ -66661,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66715,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66769,7 +66773,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66823,7 +66829,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66877,7 +66885,279 @@
       <c r="Q1186" t="n">
         <v>2</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>128</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>122.1600036621094</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>127</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>127</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>54862</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>127</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>129.9499969482422</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>125.1999969482422</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>126.2399978637695</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>126.2399978637695</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>35712</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>129</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>129</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>122.6399993896484</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>123.9700012207031</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>123.9700012207031</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>24915</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>123.9700012207031</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>127.1900024414062</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>122.8199996948242</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>123.8099975585938</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>123.8099975585938</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>17316</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>123.8199996948242</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>123.8199996948242</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>125.0699996948242</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>125.0699996948242</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>16344</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1191"/>
+  <dimension ref="A1:R1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66941,7 +66941,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66987,7 +66989,7 @@
         <v>49</v>
       </c>
       <c r="O1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1188" t="n">
         <v>0</v>
@@ -66995,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67049,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>1</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67103,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67157,7 +67165,529 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>127.6999969482422</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>127.6999969482422</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>120.1999969482422</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>18396</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>123</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>124.8899993896484</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>119.0100021362305</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>122.0500030517578</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>30030</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>122.0500030517578</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>125.5999984741211</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>122.9300003051758</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>26939</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>125.6900024414062</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>120.4300003051758</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>121.2300033569336</v>
+      </c>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="n">
+        <v>28931</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>127.8000030517578</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>120.8899993896484</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>122.8000030517578</v>
+      </c>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="n">
+        <v>35309</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>122.8300018310547</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>118.8099975585938</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>120.9700012207031</v>
+      </c>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="n">
+        <v>31096</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>120.9800033569336</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>122.7900009155273</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>118</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>118.4100036621094</v>
+      </c>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="n">
+        <v>28498</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>119.9899978637695</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>119.9899978637695</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>113.9100036621094</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>114.9000015258789</v>
+      </c>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="n">
+        <v>23006</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>113.9899978637695</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>118.5999984741211</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>113</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>115.3600006103516</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>20491</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>116</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>112.9300003051758</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>22419</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1201"/>
+  <dimension ref="A1:R1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67219,7 +67219,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67271,7 +67273,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67323,7 +67327,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67375,7 +67381,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67427,7 +67435,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67479,7 +67489,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67531,7 +67543,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67583,7 +67597,9 @@
       <c r="Q1199" t="n">
         <v>2</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67635,7 +67651,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67687,7 +67705,217 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>115.3000030517578</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>116</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>112.1100006103516</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>114.6100006103516</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>15655</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>113.3099975585938</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>116.3899993896484</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>112.0999984741211</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>112.3199996948242</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>19931</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>112.3199996948242</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>114.7300033569336</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>109</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>109.7900009155273</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>40908</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>111.8000030517578</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>111.8000030517578</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>106.6100006103516</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>107.6900024414062</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>40636</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1205"/>
+  <dimension ref="A1:R1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67759,7 +67759,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67811,7 +67813,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67863,7 +67867,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67915,7 +67921,269 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>111.5899963378906</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>129.2100067138672</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>108</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>112.4100036621094</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>568240</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>115.8000030517578</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>112.7799987792969</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>114.5199966430664</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>41420</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>115.5999984741211</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>117.4800033569336</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>115.5100021362305</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>50806</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>115.5100021362305</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>117.9100036621094</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>39554</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>117</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>117.1800003051758</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>115</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>115.9499969482422</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>18228</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1210"/>
+  <dimension ref="A1:R1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67975,7 +67975,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68027,7 +68029,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68079,7 +68083,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68131,7 +68137,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68183,7 +68191,269 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>110.6100006103516</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>112.2699966430664</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>28291</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>112.25</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>114.2799987792969</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>110.7099990844727</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>111.7099990844727</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>33549</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>111.9199981689453</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>116</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>111.5999984741211</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>112.2699966430664</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>29387</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>110.5999984741211</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>114.7799987792969</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>106.8199996948242</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>109.8600006103516</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>71768</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>111.4000015258789</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>111.4000015258789</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>105</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>105.9899978637695</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>48614</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1215"/>
+  <dimension ref="A1:R1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67967,7 +67967,7 @@
         <v>1</v>
       </c>
       <c r="O1206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1206" t="n">
         <v>0</v>
@@ -68245,7 +68245,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68297,7 +68299,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68349,7 +68353,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68401,7 +68407,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68453,7 +68461,269 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>105.9899978637695</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>107.5899963378906</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>102.6900024414062</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>96889</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>102.6900024414062</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>106.8300018310547</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>102</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>104.0699996948242</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>34434</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>106.1500015258789</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>106.1500015258789</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>101.9199981689453</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>64578</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>119.6999969482422</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>122.3000030517578</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>114.0100021362305</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>122.3000030517578</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>241115</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>132.3000030517578</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>146.7599945068359</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>127.3300018310547</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>146.5099945068359</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>4681423</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1220"/>
+  <dimension ref="A1:R1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68515,7 +68515,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68567,7 +68569,9 @@
       <c r="Q1217" t="n">
         <v>2</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68619,7 +68623,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68671,7 +68677,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68723,7 +68731,269 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>142.5500030517578</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>144.9499969482422</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="n">
+        <v>729553</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>141.4199981689453</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>144.6000061035156</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>133.0200042724609</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>133.6900024414062</v>
+      </c>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="n">
+        <v>250994</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>136.4299926757812</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>131.6399993896484</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>150.2200012207031</v>
+      </c>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="n">
+        <v>2951921</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>144.9499969482422</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>147.6999969482422</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>142.6999969482422</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>142.6999969482422</v>
+      </c>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="n">
+        <v>155691</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>140.3999938964844</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>135.5599975585938</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>135.6600036621094</v>
+      </c>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="n">
+        <v>77993</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1225"/>
+  <dimension ref="A1:R1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68507,7 +68507,7 @@
         <v>3</v>
       </c>
       <c r="O1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1216" t="n">
         <v>0</v>
@@ -68785,7 +68785,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68837,7 +68839,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68889,7 +68893,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -68941,7 +68947,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -68993,7 +69001,217 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>134.4600067138672</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>139</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>128.8699951171875</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>129.3300018310547</v>
+      </c>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="n">
+        <v>88952</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>133.3999938964844</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>123.5999984741211</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>126.4499969482422</v>
+      </c>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>40706</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>124.0999984741211</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>128.8899993896484</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>124.0999984741211</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>125.2699966430664</v>
+      </c>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="n">
+        <v>30641</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>137.8600006103516</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>137.5700073242188</v>
+      </c>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="n">
+        <v>59431</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1229"/>
+  <dimension ref="A1:R1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68885,7 +68885,7 @@
         <v>4</v>
       </c>
       <c r="O1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1223" t="n">
         <v>0</v>
@@ -69055,7 +69055,9 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -69107,7 +69109,9 @@
       <c r="Q1227" t="n">
         <v>1</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69159,27 +69163,29 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B1229" t="n">
-        <v>134.5</v>
+        <v>129.5</v>
       </c>
       <c r="C1229" t="n">
-        <v>137.8600006103516</v>
+        <v>131.5299987792969</v>
       </c>
       <c r="D1229" t="n">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="E1229" t="n">
-        <v>137.5700073242188</v>
+        <v>131.3000030517578</v>
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="n">
-        <v>59431</v>
+        <v>59166</v>
       </c>
       <c r="H1229" t="n">
         <v>2025</v>
@@ -69188,7 +69194,7 @@
         <v>1</v>
       </c>
       <c r="J1229" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1229" t="n">
         <v>0</v>
@@ -69212,6 +69218,372 @@
         <v>0</v>
       </c>
       <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>137.8600006103516</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>137.5700073242188</v>
+      </c>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="n">
+        <v>59431</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>132.25</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>138</v>
+      </c>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="n">
+        <v>65879</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>139.8999938964844</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>131.1000061035156</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>132.3899993896484</v>
+      </c>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="n">
+        <v>52049</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>135.0299987792969</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>137</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>132.3899993896484</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>133.7200012207031</v>
+      </c>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="n">
+        <v>25859</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>139</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>140.3999938964844</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>134.6000061035156</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>140.3999938964844</v>
+      </c>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="n">
+        <v>76991</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>144</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>144</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>138.2100067138672</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>140.3200073242188</v>
+      </c>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="n">
+        <v>29759</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>140</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>142.3699951171875</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>136.1999969482422</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>138.1300048828125</v>
+      </c>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="n">
+        <v>30747</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1236"/>
+  <dimension ref="A1:R1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69217,7 +69217,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69323,7 +69325,9 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69375,7 +69379,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69427,7 +69433,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69479,7 +69487,9 @@
       <c r="Q1234" t="n">
         <v>2</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69531,7 +69541,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69583,7 +69595,269 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>139.8399963378906</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>140</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>138.6300048828125</v>
+      </c>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="n">
+        <v>32860</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>135.6199951171875</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>138.9499969482422</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>131.6900024414062</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>132.2599945068359</v>
+      </c>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="n">
+        <v>41238</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>131.2200012207031</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>137</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>125.6399993896484</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>132.7599945068359</v>
+      </c>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="n">
+        <v>36017</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>132.7599945068359</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>136.4900054931641</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>129</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>129.9600067138672</v>
+      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="n">
+        <v>13221</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>130.4900054931641</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>131.6900024414062</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>125.0100021362305</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>127.7099990844727</v>
+      </c>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="n">
+        <v>19333</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1241"/>
+  <dimension ref="A1:R1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69533,7 +69533,7 @@
         <v>6</v>
       </c>
       <c r="O1235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1235" t="n">
         <v>0</v>
@@ -69649,7 +69649,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69701,7 +69703,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69753,7 +69757,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69805,7 +69811,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69857,7 +69865,269 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>128</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>128.9700012207031</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>122</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>124.2300033569336</v>
+      </c>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="n">
+        <v>28239</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>122.870002746582</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>125.9499969482422</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>119</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>120.3199996948242</v>
+      </c>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="n">
+        <v>17091</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>125.9800033569336</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>122.9899978637695</v>
+      </c>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="n">
+        <v>10467</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>124.9000015258789</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>125.4000015258789</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>123.25</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="n">
+        <v>13989</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>125</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>128</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>123</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>123.1600036621094</v>
+      </c>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="n">
+        <v>16410</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1246"/>
+  <dimension ref="A1:R1255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69919,7 +69919,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -69971,7 +69973,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70023,7 +70027,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70075,7 +70081,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70127,7 +70135,477 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>123.1600036621094</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>123.1600036621094</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>117.5500030517578</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>121.3099975585938</v>
+      </c>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="n">
+        <v>9959</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>118.5999984741211</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>124.6600036621094</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>118.5999984741211</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>122.2300033569336</v>
+      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="n">
+        <v>17307</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>119.8000030517578</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>120.0299987792969</v>
+      </c>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="n">
+        <v>7855</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>118.5100021362305</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>120</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>114.8499984741211</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>116.1800003051758</v>
+      </c>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="n">
+        <v>13315</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>115.5500030517578</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>110.370002746582</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>114.0999984741211</v>
+      </c>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>30780</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>110</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>111.8199996948242</v>
+      </c>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="n">
+        <v>14884</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>115.25</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>117.3899993896484</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>113.6999969482422</v>
+      </c>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="n">
+        <v>23278</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>110.0500030517578</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>113.7399978637695</v>
+      </c>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="n">
+        <v>31580</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>113.7399978637695</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>112.0500030517578</v>
+      </c>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>25194</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1255"/>
+  <dimension ref="A1:R1264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70189,7 +70189,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70241,7 +70243,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70293,7 +70297,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70345,7 +70351,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70397,7 +70405,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70449,7 +70459,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70501,7 +70513,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70553,7 +70567,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70605,7 +70621,477 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>116.1900024414062</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>116.1900024414062</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>110.6999969482422</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>25038</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>112</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>114.3899993896484</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>111</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>111.8600006103516</v>
+      </c>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="n">
+        <v>15691</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>111.8600006103516</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>114.9000015258789</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>110</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>110.2600021362305</v>
+      </c>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="n">
+        <v>21330</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>113</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>113.8899993896484</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>107.5500030517578</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>108.8499984741211</v>
+      </c>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="n">
+        <v>31623</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>110</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>112</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>108</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="n">
+        <v>31513</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>109.4499969482422</v>
+      </c>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>116.9899978637695</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>120.620002746582</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>115.4499969482422</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>120.620002746582</v>
+      </c>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="n">
+        <v>25014</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>115.0100021362305</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>117.6500015258789</v>
+      </c>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>46575</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>117.4899978637695</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>123.5299987792969</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>117.4899978637695</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>121.7900009155273</v>
+      </c>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="n">
+        <v>30092</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1264"/>
+  <dimension ref="A1:R1273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70675,7 +70675,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70727,7 +70729,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70779,7 +70783,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70823,7 +70829,7 @@
         <v>11</v>
       </c>
       <c r="O1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1259" t="n">
         <v>0</v>
@@ -70831,7 +70837,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -70883,7 +70891,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -70935,7 +70945,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -70987,7 +70999,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71039,7 +71053,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71091,7 +71107,477 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>121.7900009155273</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>127.870002746582</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>121</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>124.7900009155273</v>
+      </c>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="n">
+        <v>31764</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>123.0500030517578</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>126.9899978637695</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>118.5500030517578</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>118.8499984741211</v>
+      </c>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="n">
+        <v>34323</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>118.0199966430664</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>122</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>115</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>118.7799987792969</v>
+      </c>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>37133</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>118.3399963378906</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>120.0999984741211</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>115.25</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>118.1399993896484</v>
+      </c>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="n">
+        <v>39229</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>122</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>122</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>115</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>118.379997253418</v>
+      </c>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="n">
+        <v>42655</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>117.25</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>122.4400024414062</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>115.5199966430664</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>119.370002746582</v>
+      </c>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="n">
+        <v>82992</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>123.7900009155273</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>117.379997253418</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>118.3499984741211</v>
+      </c>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="n">
+        <v>34415</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>117.1999969482422</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>123.1900024414062</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>117.1999969482422</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>122.0699996948242</v>
+      </c>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="n">
+        <v>24869</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>118.0100021362305</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>118.5100021362305</v>
+      </c>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="n">
+        <v>21043</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1273"/>
+  <dimension ref="A1:R1277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71153,7 +71153,7 @@
         <v>13</v>
       </c>
       <c r="O1265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1265" t="n">
         <v>0</v>
@@ -71161,7 +71161,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71213,7 +71215,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71265,7 +71269,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71317,7 +71323,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71369,7 +71377,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71421,7 +71431,9 @@
       <c r="Q1270" t="n">
         <v>1</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71473,7 +71485,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71525,7 +71539,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71577,7 +71593,217 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>113</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>118.1100006103516</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>108.1500015258789</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>116.6500015258789</v>
+      </c>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="n">
+        <v>47827</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>118.9800033569336</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>124.0699996948242</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>116.8099975585938</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>122.7900009155273</v>
+      </c>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="n">
+        <v>33647</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>120.5100021362305</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>134</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>120.5100021362305</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>131.1600036621094</v>
+      </c>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="n">
+        <v>245647</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>132</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>136.0800018310547</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>130.7700042724609</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>132.1000061035156</v>
+      </c>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="n">
+        <v>114467</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1277"/>
+  <dimension ref="A1:R1280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71647,7 +71647,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71699,7 +71701,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71751,7 +71755,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71803,7 +71809,165 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>140</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>132.1600036621094</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>137.1699981689453</v>
+      </c>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="n">
+        <v>98275</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>150.4900054931641</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>136.1999969482422</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>147.7200012207031</v>
+      </c>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="n">
+        <v>437486</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>147.7599945068359</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>157</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>147.7599945068359</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>152.0500030517578</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>488710</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1280"/>
+  <dimension ref="A1:R1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="R172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -12846,7 +12846,7 @@
         <v>2</v>
       </c>
       <c r="R221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="R268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="R288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -20798,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="R363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -23262,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -23710,7 +23710,7 @@
         <v>1</v>
       </c>
       <c r="R415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="R455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -26790,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="R470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -29142,7 +29142,7 @@
         <v>0</v>
       </c>
       <c r="R512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -29702,7 +29702,7 @@
         <v>1</v>
       </c>
       <c r="R522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="R538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -31998,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="R563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -52606,7 +52606,7 @@
         <v>0</v>
       </c>
       <c r="R931" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932">
@@ -64926,7 +64926,7 @@
         <v>2</v>
       </c>
       <c r="R1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152">
@@ -65710,7 +65710,7 @@
         <v>2</v>
       </c>
       <c r="R1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166">
@@ -66886,7 +66886,7 @@
         <v>2</v>
       </c>
       <c r="R1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187">
@@ -67054,7 +67054,7 @@
         <v>1</v>
       </c>
       <c r="R1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -67598,7 +67598,7 @@
         <v>2</v>
       </c>
       <c r="R1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200">
@@ -69110,7 +69110,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -71639,7 +71639,7 @@
         <v>15</v>
       </c>
       <c r="O1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1274" t="n">
         <v>0</v>
@@ -71863,7 +71863,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -71915,7 +71917,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -71967,7 +71971,477 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>147.1999969482422</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>147.8000030517578</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>635786</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>140.5500030517578</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>141.4299926757812</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>155204</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>147.8999938964844</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>140.4100036621094</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>142.3000030517578</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>150153</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>143.7799987792969</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>138.5299987792969</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>227397</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>139.1999969482422</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>144.3999938964844</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>135.7599945068359</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>138.9299926757812</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>190966</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>140</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>138.1000061035156</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>143.0500030517578</v>
+      </c>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="n">
+        <v>167820</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>143.0099945068359</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>144.8999938964844</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>141.7200012207031</v>
+      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="n">
+        <v>50159</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>140.1100006103516</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>138.3600006103516</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>139.0800018310547</v>
+      </c>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="n">
+        <v>85562</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>140.1000061035156</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>144</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>138</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>140.4600067138672</v>
+      </c>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="n">
+        <v>135010</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/MAHEPC.NS.xlsx
+++ b/stock_historical_data/1d/MAHEPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1289"/>
+  <dimension ref="A1:R1299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="R172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -12846,7 +12846,7 @@
         <v>2</v>
       </c>
       <c r="R221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="R268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="R288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -18278,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="R318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -20798,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="R363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -22254,7 +22254,7 @@
         <v>1</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -23262,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="R407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -23710,7 +23710,7 @@
         <v>1</v>
       </c>
       <c r="R415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="R455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -26790,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="R470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -29142,7 +29142,7 @@
         <v>0</v>
       </c>
       <c r="R512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -29702,7 +29702,7 @@
         <v>1</v>
       </c>
       <c r="R522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="R538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -31998,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="R563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -52606,7 +52606,7 @@
         <v>0</v>
       </c>
       <c r="R931" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -64926,7 +64926,7 @@
         <v>2</v>
       </c>
       <c r="R1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152">
@@ -65710,7 +65710,7 @@
         <v>2</v>
       </c>
       <c r="R1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166">
@@ -66886,7 +66886,7 @@
         <v>2</v>
       </c>
       <c r="R1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187">
@@ -67054,7 +67054,7 @@
         <v>1</v>
       </c>
       <c r="R1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -67598,7 +67598,7 @@
         <v>2</v>
       </c>
       <c r="R1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -69110,7 +69110,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -72017,7 +72017,7 @@
         <v>17</v>
       </c>
       <c r="O1281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1281" t="n">
         <v>0</v>
@@ -72025,7 +72025,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72077,7 +72079,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72129,7 +72133,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72181,7 +72187,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72233,7 +72241,9 @@
       <c r="Q1285" t="n">
         <v>1</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72285,7 +72295,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72337,7 +72349,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72389,7 +72403,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72441,7 +72457,529 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>142.6000061035156</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>139</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>140.1199951171875</v>
+      </c>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="n">
+        <v>44441</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>141.7200012207031</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>133.6000061035156</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="n">
+        <v>175127</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>133.1999969482422</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>130.6000061035156</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>131.9199981689453</v>
+      </c>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="n">
+        <v>65239</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>145.1100006103516</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>129.5099945068359</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>138.5700073242188</v>
+      </c>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="n">
+        <v>200002</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>135.8000030517578</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>138.0200042724609</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>133.25</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>135.5399932861328</v>
+      </c>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="n">
+        <v>98098</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>139.9900054931641</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>147.4900054931641</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>138.8099975585938</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>144.5800018310547</v>
+      </c>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="n">
+        <v>136142</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>142.9600067138672</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>150.7899932861328</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>139.1999969482422</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>147.5800018310547</v>
+      </c>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="n">
+        <v>405180</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>148.8999938964844</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>150.3699951171875</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>146.4299926757812</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>147.5899963378906</v>
+      </c>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="n">
+        <v>110161</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>148.3999938964844</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>148.3999938964844</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>144.5099945068359</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>145.0200042724609</v>
+      </c>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="n">
+        <v>78165</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>145.0200042724609</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>147.3699951171875</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>143</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>143.6900024414062</v>
+      </c>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="n">
+        <v>60611</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
